--- a/Translation sheets/Translation-form.xlsx
+++ b/Translation sheets/Translation-form.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="208">
   <si>
     <t>English</t>
   </si>
@@ -368,12 +368,320 @@
     <t>[h1]Locks mod[/h1]
 I highly recommend using my other mod [url=http://steamcommunity.com/sharedfiles/filedetails/?id=1157085076]Locks[/url]. This will allow you to enable prisoners to leave their cells.</t>
   </si>
+  <si>
+    <t>Keyed\Keys.xml</t>
+  </si>
+  <si>
+    <t>PrisonLabor_PrisonerWork</t>
+  </si>
+  <si>
+    <t>PrisonLabor_WorkAndRecruit</t>
+  </si>
+  <si>
+    <t>PrisonLabor_LazyPrisonerMessage</t>
+  </si>
+  <si>
+    <t>PrisonLabor_WardenResponeThreshold</t>
+  </si>
+  <si>
+    <t>PrisonLabor_StoppingWorkThreshold</t>
+  </si>
+  <si>
+    <t>PrisonLabor_WorkTypeDisabled</t>
+  </si>
+  <si>
+    <t>PrisonLabor_ShowNews</t>
+  </si>
+  <si>
+    <t>PrisonLabor_ShowNewsDesc</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DefaultInterMode</t>
+  </si>
+  <si>
+    <t>PrisonLabor_AllowedWorkTypes</t>
+  </si>
+  <si>
+    <t>PrisonLabor_AllowAll</t>
+  </si>
+  <si>
+    <t>PrisonLabor_AllowAllWorktypes</t>
+  </si>
+  <si>
+    <t>PrisonLabor_AllowedWorktypesL</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Browse</t>
+  </si>
+  <si>
+    <t>PrisonLabor_MotivationMechanics</t>
+  </si>
+  <si>
+    <t>PrisonLabor_MotivationWarning</t>
+  </si>
+  <si>
+    <t>PrisonLabor_CanGrowAdvanced</t>
+  </si>
+  <si>
+    <t>PrisonLabor_CanGrowAdvancedDesc</t>
+  </si>
+  <si>
+    <t>PrisonLabor_RestartInfo</t>
+  </si>
+  <si>
+    <t>PrisonLabor_RestartInfo2</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DisableMod</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DisableModDesc</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Version</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Difficulty</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Defaults</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DifficultyNormal</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DifficultyCasual</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DifficultyEasy</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DifficultyPeaceful</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DifficultyJoke</t>
+  </si>
+  <si>
+    <t>PrisonLabor_LazyPrisonerAlert</t>
+  </si>
+  <si>
+    <t>PrisonLabor_LazyPrisonerExplanationDef</t>
+  </si>
+  <si>
+    <t>PrisonLabor_LazyPrisonerExplanation</t>
+  </si>
+  <si>
+    <t>PrisonLabor_StarvingPrisonerAlert</t>
+  </si>
+  <si>
+    <t>PrisonLabor_StarvingPrisonerExplanationDef</t>
+  </si>
+  <si>
+    <t>PrisonLabor_StarvingPrionserExplanation</t>
+  </si>
+  <si>
+    <t>PrisonLabor_LaborArea</t>
+  </si>
+  <si>
+    <t>PrisonLabor_LaborAreaDesc</t>
+  </si>
+  <si>
+    <t>PrisonLabor_ClearLaborArea</t>
+  </si>
+  <si>
+    <t>PrisonLabor_ExpandLaborArea</t>
+  </si>
+  <si>
+    <t>PrisonLabor_ColonistsOnly</t>
+  </si>
+  <si>
+    <t>PrisonLabor_PrisonersOnly</t>
+  </si>
+  <si>
+    <t>PrisonLabor_ColonyOnly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">XML code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(automated)</t>
+    </r>
+  </si>
+  <si>
+    <t>PrisonLabor_MotivationIcons</t>
+  </si>
+  <si>
+    <t>PrisonLabor_MotivationIconsDesc</t>
+  </si>
+  <si>
+    <t>Inspiration/Motivation Icons</t>
+  </si>
+  <si>
+    <t>When enabled icons will be displayed above prisoners heads. Blue icon for inspiration, and green icon for gaining motivation by other factors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>DefInjected\ConceptDef\ConceptDef.xml</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Indroduction.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Indroduction.helpText</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Motivation.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Motivation.helpText</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Growing.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Growing.helpText</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Management.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Management.helpText</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Timetable.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Timetable.helpText</t>
+  </si>
+  <si>
+    <t>DefInjected\NeedDef\Needs.xml</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Motivation.description</t>
+  </si>
+  <si>
+    <t>DefInjected\HediffDef\Hediffs.xml</t>
+  </si>
+  <si>
+    <t>PrisonLabor_PrisonerChains.stages.0.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_PrisonerChains.stages.1.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Revolt.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Revolt.letterLabel</t>
+  </si>
+  <si>
+    <t>PrisonLabor_PrisonerSupervise.reportString</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DeliverFood_Tweak.reportString</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Mine_Tweak.reportString</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Harvest_Tweak.reportString</t>
+  </si>
+  <si>
+    <t>PrisonLabor_CutPlant_Tweak.reportString</t>
+  </si>
+  <si>
+    <t>PrisonLabor_SupervisePrisonLabor.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_SupervisePrisonLabor.verb</t>
+  </si>
+  <si>
+    <t>PrisonLabor_SupervisePrisonLabor.gerund</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DeliverFoodToPrisoner_Tweak.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DeliverFoodToPrisoner_Tweak.verb</t>
+  </si>
+  <si>
+    <t>PrisonLabor_DeliverFoodToPrisoner_Tweak.gerund</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Mine_Tweak.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Mine_Tweak.verb</t>
+  </si>
+  <si>
+    <t>PrisonLabor_Mine_Tweak.gerund</t>
+  </si>
+  <si>
+    <t>PrisonLabor_PlantsCut_Tweak.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_PlantsCut_Tweak.verb</t>
+  </si>
+  <si>
+    <t>PrisonLabor_PlantsCut_Tweak.gerund</t>
+  </si>
+  <si>
+    <t>PrisonLabor_GrowerHarvest_Tweak.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_GrowerHarvest_Tweak.verb</t>
+  </si>
+  <si>
+    <t>PrisonLabor_GrowerHarvest_Tweak.gerund</t>
+  </si>
+  <si>
+    <t>PrisonLabor_GrowerSow_Tweak.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_GrowerSow_Tweak.verb</t>
+  </si>
+  <si>
+    <t>PrisonLabor_GrowerSow_Tweak.gerund</t>
+  </si>
+  <si>
+    <t>PrisonLabor_CleanFilth_Tweak.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_CleanFilth_Tweak.verb</t>
+  </si>
+  <si>
+    <t>PrisonLabor_CleanFilth_Tweak.gerund</t>
+  </si>
+  <si>
+    <t>DefInjected\WorkGiverDef\WorkGiverDef.xml</t>
+  </si>
+  <si>
+    <t>DefInjected\IncidentDef\Incidents.xml</t>
+  </si>
+  <si>
+    <t>DefInjected\JobDef\JobDef.xml</t>
+  </si>
+  <si>
+    <t>0.9.2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,8 +708,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,8 +743,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -506,11 +835,156 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="slantDashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -545,12 +1019,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -563,6 +1031,44 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -877,10 +1383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B04E6-7593-465F-8DFF-3C928DB22BF4}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:H318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,10 +1394,12 @@
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
     <col min="2" max="2" width="65.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="68.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -900,852 +1408,2650 @@
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="H1" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="H2" s="32" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="19" t="str">
+        <f>"&lt;"&amp;E3&amp;"&gt;"&amp;C3&amp;"&lt;/"&amp;E3&amp;"&gt;"</f>
+        <v>&lt;PrisonLabor_PrisonerWork&gt;&lt;/PrisonLabor_PrisonerWork&gt;</v>
+      </c>
+      <c r="G3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="19" t="str">
+        <f t="shared" ref="F4:F47" si="0">"&lt;"&amp;E4&amp;"&gt;"&amp;C4&amp;"&lt;/"&amp;E4&amp;"&gt;"</f>
+        <v>&lt;PrisonLabor_WorkAndRecruit&gt;&lt;/PrisonLabor_WorkAndRecruit&gt;</v>
+      </c>
+      <c r="G4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_LazyPrisonerMessage&gt;&lt;/PrisonLabor_LazyPrisonerMessage&gt;</v>
+      </c>
+      <c r="G5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_WardenResponeThreshold&gt;&lt;/PrisonLabor_WardenResponeThreshold&gt;</v>
+      </c>
+      <c r="G6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_StoppingWorkThreshold&gt;&lt;/PrisonLabor_StoppingWorkThreshold&gt;</v>
+      </c>
+      <c r="G7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_WorkTypeDisabled&gt;&lt;/PrisonLabor_WorkTypeDisabled&gt;</v>
+      </c>
+      <c r="G8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_ShowNews&gt;&lt;/PrisonLabor_ShowNews&gt;</v>
+      </c>
+      <c r="G9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_ShowNewsDesc&gt;&lt;/PrisonLabor_ShowNewsDesc&gt;</v>
+      </c>
+      <c r="G10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="D11" s="17"/>
+      <c r="E11" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_DefaultInterMode&gt;&lt;/PrisonLabor_DefaultInterMode&gt;</v>
+      </c>
+      <c r="G11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="D12" s="17"/>
+      <c r="E12" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_AllowedWorkTypes&gt;&lt;/PrisonLabor_AllowedWorkTypes&gt;</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="D13" s="17"/>
+      <c r="E13" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_AllowAll&gt;&lt;/PrisonLabor_AllowAll&gt;</v>
+      </c>
+      <c r="G13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_AllowAllWorktypes&gt;&lt;/PrisonLabor_AllowAllWorktypes&gt;</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_AllowedWorktypesL&gt;&lt;/PrisonLabor_AllowedWorktypesL&gt;</v>
+      </c>
+      <c r="G15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_Browse&gt;&lt;/PrisonLabor_Browse&gt;</v>
+      </c>
+      <c r="G16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_MotivationMechanics&gt;&lt;/PrisonLabor_MotivationMechanics&gt;</v>
+      </c>
+      <c r="G17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_MotivationWarning&gt;&lt;/PrisonLabor_MotivationWarning&gt;</v>
+      </c>
+      <c r="G18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_MotivationIcons&gt;&lt;/PrisonLabor_MotivationIcons&gt;</v>
+      </c>
+      <c r="G19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="19" t="str">
+        <f>"&lt;"&amp;E20&amp;"&gt;"&amp;C20&amp;"&lt;/"&amp;E20&amp;"&gt;"</f>
+        <v>&lt;PrisonLabor_MotivationIconsDesc&gt;&lt;/PrisonLabor_MotivationIconsDesc&gt;</v>
+      </c>
+      <c r="G20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_CanGrowAdvanced&gt;&lt;/PrisonLabor_CanGrowAdvanced&gt;</v>
+      </c>
+      <c r="G21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_CanGrowAdvancedDesc&gt;&lt;/PrisonLabor_CanGrowAdvancedDesc&gt;</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_RestartInfo&gt;&lt;/PrisonLabor_RestartInfo&gt;</v>
+      </c>
+      <c r="G23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_RestartInfo2&gt;&lt;/PrisonLabor_RestartInfo2&gt;</v>
+      </c>
+      <c r="G24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_DisableMod&gt;&lt;/PrisonLabor_DisableMod&gt;</v>
+      </c>
+      <c r="G25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_DisableModDesc&gt;&lt;/PrisonLabor_DisableModDesc&gt;</v>
+      </c>
+      <c r="G26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_Version&gt;&lt;/PrisonLabor_Version&gt;</v>
+      </c>
+      <c r="G27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_Difficulty&gt;&lt;/PrisonLabor_Difficulty&gt;</v>
+      </c>
+      <c r="G28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_Defaults&gt;&lt;/PrisonLabor_Defaults&gt;</v>
+      </c>
+      <c r="G29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_DifficultyNormal&gt;&lt;/PrisonLabor_DifficultyNormal&gt;</v>
+      </c>
+      <c r="G30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_DifficultyCasual&gt;&lt;/PrisonLabor_DifficultyCasual&gt;</v>
+      </c>
+      <c r="G31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_DifficultyEasy&gt;&lt;/PrisonLabor_DifficultyEasy&gt;</v>
+      </c>
+      <c r="G32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_DifficultyPeaceful&gt;&lt;/PrisonLabor_DifficultyPeaceful&gt;</v>
+      </c>
+      <c r="G33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_DifficultyJoke&gt;&lt;/PrisonLabor_DifficultyJoke&gt;</v>
+      </c>
+      <c r="G34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_LazyPrisonerAlert&gt;&lt;/PrisonLabor_LazyPrisonerAlert&gt;</v>
+      </c>
+      <c r="G35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_LazyPrisonerExplanationDef&gt;&lt;/PrisonLabor_LazyPrisonerExplanationDef&gt;</v>
+      </c>
+      <c r="G36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_LazyPrisonerExplanation&gt;&lt;/PrisonLabor_LazyPrisonerExplanation&gt;</v>
+      </c>
+      <c r="G37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_StarvingPrisonerAlert&gt;&lt;/PrisonLabor_StarvingPrisonerAlert&gt;</v>
+      </c>
+      <c r="G38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="16" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_StarvingPrisonerExplanationDef&gt;&lt;/PrisonLabor_StarvingPrisonerExplanationDef&gt;</v>
+      </c>
+      <c r="G39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_StarvingPrionserExplanation&gt;&lt;/PrisonLabor_StarvingPrionserExplanation&gt;</v>
+      </c>
+      <c r="G40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="C41" s="5"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_LaborArea&gt;&lt;/PrisonLabor_LaborArea&gt;</v>
+      </c>
+      <c r="G41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_LaborAreaDesc&gt;&lt;/PrisonLabor_LaborAreaDesc&gt;</v>
+      </c>
+      <c r="G42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="C43" s="5"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F43" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_ClearLaborArea&gt;&lt;/PrisonLabor_ClearLaborArea&gt;</v>
+      </c>
+      <c r="G43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="C44" s="5"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_ExpandLaborArea&gt;&lt;/PrisonLabor_ExpandLaborArea&gt;</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_ColonistsOnly&gt;&lt;/PrisonLabor_ColonistsOnly&gt;</v>
+      </c>
+      <c r="G45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_PrisonersOnly&gt;&lt;/PrisonLabor_PrisonersOnly&gt;</v>
+      </c>
+      <c r="G46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;PrisonLabor_ColonyOnly&gt;&lt;/PrisonLabor_ColonyOnly&gt;</v>
+      </c>
+      <c r="G47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="4" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F49" s="19" t="str">
+        <f>"&lt;"&amp;E49&amp;"&gt;"&amp;C49&amp;"&lt;/"&amp;E49&amp;"&gt;"</f>
+        <v>&lt;PrisonLabor_Indroduction.label&gt;&lt;/PrisonLabor_Indroduction.label&gt;</v>
+      </c>
+      <c r="G49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="4" t="s">
+      <c r="C50" s="5"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="19" t="str">
+        <f t="shared" ref="F50:F64" si="1">"&lt;"&amp;E50&amp;"&gt;"&amp;C50&amp;"&lt;/"&amp;E50&amp;"&gt;"</f>
+        <v>&lt;PrisonLabor_Indroduction.helpText&gt;&lt;/PrisonLabor_Indroduction.helpText&gt;</v>
+      </c>
+      <c r="G50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="4" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_Motivation.label&gt;&lt;/PrisonLabor_Motivation.label&gt;</v>
+      </c>
+      <c r="G51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="4" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_Motivation.helpText&gt;&lt;/PrisonLabor_Motivation.helpText&gt;</v>
+      </c>
+      <c r="G52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="4" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_Growing.label&gt;&lt;/PrisonLabor_Growing.label&gt;</v>
+      </c>
+      <c r="G53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="5"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="4" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_Growing.helpText&gt;&lt;/PrisonLabor_Growing.helpText&gt;</v>
+      </c>
+      <c r="G54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="4" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_Management.label&gt;&lt;/PrisonLabor_Management.label&gt;</v>
+      </c>
+      <c r="G55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
-      <c r="B55" s="4" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_Management.helpText&gt;&lt;/PrisonLabor_Management.helpText&gt;</v>
+      </c>
+      <c r="G56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="6" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F57" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_Timetable.label&gt;&lt;/PrisonLabor_Timetable.label&gt;</v>
+      </c>
+      <c r="G57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="15"/>
+      <c r="B58" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="C58" s="7"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_Timetable.helpText&gt;&lt;/PrisonLabor_Timetable.helpText&gt;</v>
+      </c>
+      <c r="G58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="15"/>
-      <c r="B58" s="8" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="6" t="s">
+      <c r="C60" s="9"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F60" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_Motivation.label&gt;&lt;/PrisonLabor_Motivation.label&gt;</v>
+      </c>
+      <c r="G60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+      <c r="C61" s="7"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="F61" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_Motivation.description&gt;&lt;/PrisonLabor_Motivation.description&gt;</v>
+      </c>
+      <c r="G61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="15"/>
-      <c r="B61" s="8" t="s">
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="9"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="16"/>
-      <c r="B62" s="4" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_PrisonerChains.stages.0.label&gt;&lt;/PrisonLabor_PrisonerChains.stages.0.label&gt;</v>
+      </c>
+      <c r="G63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="5"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="4" t="s">
+      <c r="C64" s="5"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F64" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;PrisonLabor_PrisonerChains.stages.1.label&gt;&lt;/PrisonLabor_PrisonerChains.stages.1.label&gt;</v>
+      </c>
+      <c r="G64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="5"/>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="6" t="s">
+      <c r="C65" s="5"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="19"/>
+      <c r="G65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15"/>
+      <c r="B66" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
+      <c r="C66" s="7"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="19"/>
+      <c r="G66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="8" t="s">
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="9"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="16"/>
-      <c r="B67" s="4" t="s">
+      <c r="C68" s="9"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="F68" s="19" t="str">
+        <f t="shared" ref="F68:F69" si="2">"&lt;"&amp;E68&amp;"&gt;"&amp;C68&amp;"&lt;/"&amp;E68&amp;"&gt;"</f>
+        <v>&lt;PrisonLabor_Revolt.label&gt;&lt;/PrisonLabor_Revolt.label&gt;</v>
+      </c>
+      <c r="G68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="6" t="s">
+      <c r="C69" s="5"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F69" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;PrisonLabor_Revolt.letterLabel&gt;&lt;/PrisonLabor_Revolt.letterLabel&gt;</v>
+      </c>
+      <c r="G69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="15"/>
+      <c r="B70" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
+      <c r="C70" s="7"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="19"/>
+      <c r="G70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="8" t="s">
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="F71" s="23"/>
+      <c r="G71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="C72" s="9"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72" s="19" t="str">
+        <f t="shared" ref="F72:F76" si="3">"&lt;"&amp;E72&amp;"&gt;"&amp;C72&amp;"&lt;/"&amp;E72&amp;"&gt;"</f>
+        <v>&lt;PrisonLabor_PrisonerSupervise.reportString&gt;&lt;/PrisonLabor_PrisonerSupervise.reportString&gt;</v>
+      </c>
+      <c r="G72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="16" t="s">
+      <c r="C73" s="5"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;PrisonLabor_DeliverFood_Tweak.reportString&gt;&lt;/PrisonLabor_DeliverFood_Tweak.reportString&gt;</v>
+      </c>
+      <c r="G73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="16" t="s">
+      <c r="C74" s="5"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;PrisonLabor_Mine_Tweak.reportString&gt;&lt;/PrisonLabor_Mine_Tweak.reportString&gt;</v>
+      </c>
+      <c r="G74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B75" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
+      <c r="C75" s="5"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;PrisonLabor_Harvest_Tweak.reportString&gt;&lt;/PrisonLabor_Harvest_Tweak.reportString&gt;</v>
+      </c>
+      <c r="G75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="7"/>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
+      <c r="C76" s="7"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;PrisonLabor_CutPlant_Tweak.reportString&gt;&lt;/PrisonLabor_CutPlant_Tweak.reportString&gt;</v>
+      </c>
+      <c r="G76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="8" t="s">
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F77" s="25"/>
+      <c r="G77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="9"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="4" t="s">
+      <c r="C78" s="9"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" s="19" t="str">
+        <f t="shared" ref="F78:F98" si="4">"&lt;"&amp;E78&amp;"&gt;"&amp;C78&amp;"&lt;/"&amp;E78&amp;"&gt;"</f>
+        <v>&lt;PrisonLabor_SupervisePrisonLabor.label&gt;&lt;/PrisonLabor_SupervisePrisonLabor.label&gt;</v>
+      </c>
+      <c r="G78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C77" s="5"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="4" t="s">
+      <c r="C79" s="5"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F79" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_SupervisePrisonLabor.verb&gt;&lt;/PrisonLabor_SupervisePrisonLabor.verb&gt;</v>
+      </c>
+      <c r="G79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
+      <c r="C80" s="5"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F80" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_SupervisePrisonLabor.gerund&gt;&lt;/PrisonLabor_SupervisePrisonLabor.gerund&gt;</v>
+      </c>
+      <c r="G80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B81" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="5"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
+      <c r="C81" s="5"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F81" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.label&gt;&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.label&gt;</v>
+      </c>
+      <c r="G81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C80" s="5"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="16" t="s">
+      <c r="C82" s="5"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F82" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.verb&gt;&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.verb&gt;</v>
+      </c>
+      <c r="G82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B83" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C81" s="5"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="C83" s="5"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F83" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.gerund&gt;&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.gerund&gt;</v>
+      </c>
+      <c r="G83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B84" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="5"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="16" t="s">
+      <c r="C84" s="5"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F84" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_Mine_Tweak.label&gt;&lt;/PrisonLabor_Mine_Tweak.label&gt;</v>
+      </c>
+      <c r="G84" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B85" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="5"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="s">
+      <c r="C85" s="5"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F85" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_Mine_Tweak.verb&gt;&lt;/PrisonLabor_Mine_Tweak.verb&gt;</v>
+      </c>
+      <c r="G85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B86" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="16" t="s">
+      <c r="C86" s="5"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_Mine_Tweak.gerund&gt;&lt;/PrisonLabor_Mine_Tweak.gerund&gt;</v>
+      </c>
+      <c r="G86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B87" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="s">
+      <c r="C87" s="5"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="F87" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_PlantsCut_Tweak.label&gt;&lt;/PrisonLabor_PlantsCut_Tweak.label&gt;</v>
+      </c>
+      <c r="G87" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B88" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="5"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
+      <c r="C88" s="5"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F88" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_PlantsCut_Tweak.verb&gt;&lt;/PrisonLabor_PlantsCut_Tweak.verb&gt;</v>
+      </c>
+      <c r="G88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="5"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+      <c r="C89" s="5"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F89" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_PlantsCut_Tweak.gerund&gt;&lt;/PrisonLabor_PlantsCut_Tweak.gerund&gt;</v>
+      </c>
+      <c r="G89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="5"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="C90" s="5"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F90" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_GrowerHarvest_Tweak.label&gt;&lt;/PrisonLabor_GrowerHarvest_Tweak.label&gt;</v>
+      </c>
+      <c r="G90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B91" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="5"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
+      <c r="C91" s="5"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F91" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_GrowerHarvest_Tweak.verb&gt;&lt;/PrisonLabor_GrowerHarvest_Tweak.verb&gt;</v>
+      </c>
+      <c r="G91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B92" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="5"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
+      <c r="C92" s="5"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F92" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_GrowerHarvest_Tweak.gerund&gt;&lt;/PrisonLabor_GrowerHarvest_Tweak.gerund&gt;</v>
+      </c>
+      <c r="G92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B93" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="5"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="s">
+      <c r="C93" s="5"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F93" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_GrowerSow_Tweak.label&gt;&lt;/PrisonLabor_GrowerSow_Tweak.label&gt;</v>
+      </c>
+      <c r="G93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B94" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="5"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="16" t="s">
+      <c r="C94" s="5"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F94" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_GrowerSow_Tweak.verb&gt;&lt;/PrisonLabor_GrowerSow_Tweak.verb&gt;</v>
+      </c>
+      <c r="G94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="5"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
+      <c r="C95" s="5"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="F95" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_GrowerSow_Tweak.gerund&gt;&lt;/PrisonLabor_GrowerSow_Tweak.gerund&gt;</v>
+      </c>
+      <c r="G95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="5"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="16" t="s">
+      <c r="C96" s="5"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F96" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_CleanFilth_Tweak.label&gt;&lt;/PrisonLabor_CleanFilth_Tweak.label&gt;</v>
+      </c>
+      <c r="G96" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="5"/>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="16" t="s">
+      <c r="C97" s="5"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="F97" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_CleanFilth_Tweak.verb&gt;&lt;/PrisonLabor_CleanFilth_Tweak.verb&gt;</v>
+      </c>
+      <c r="G97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B98" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="7"/>
-    </row>
-    <row r="97" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="s">
+      <c r="C98" s="7"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F98" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_CleanFilth_Tweak.gerund&gt;&lt;/PrisonLabor_CleanFilth_Tweak.gerund&gt;</v>
+      </c>
+      <c r="G98" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="15" t="s">
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="27"/>
+      <c r="G99" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B100" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="9"/>
-    </row>
-    <row r="99" spans="1:3" ht="270" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
+      <c r="C100" s="9"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="19"/>
+      <c r="G100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="5"/>
-    </row>
-    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="s">
+      <c r="C101" s="5"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="19"/>
+      <c r="G101" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="5"/>
-    </row>
-    <row r="101" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="16" t="s">
+      <c r="C102" s="5"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="19"/>
+      <c r="G102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="5"/>
-    </row>
-    <row r="102" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="16" t="s">
+      <c r="C103" s="5"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="19"/>
+      <c r="G103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C102" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="21"/>
+      <c r="G104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+    </row>
+    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+    </row>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+    </row>
+    <row r="148" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E159" s="16"/>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E160" s="16"/>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E161" s="16"/>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E162" s="16"/>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E163" s="16"/>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E164" s="16"/>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E165" s="16"/>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E166" s="16"/>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E167" s="16"/>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E168" s="16"/>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E169" s="16"/>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E170" s="16"/>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E171" s="16"/>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E172" s="16"/>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E173" s="16"/>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E174" s="16"/>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E175" s="16"/>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E176" s="16"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177" s="16"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E178" s="16"/>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E179" s="16"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180" s="16"/>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181" s="16"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182" s="16"/>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183" s="16"/>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E184" s="16"/>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E185" s="16"/>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E186" s="16"/>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E187" s="16"/>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E188" s="16"/>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E189" s="16"/>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E190" s="16"/>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E191" s="16"/>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E192" s="16"/>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E193" s="16"/>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E194" s="16"/>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E195" s="16"/>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E196" s="16"/>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E197" s="16"/>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E198" s="16"/>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E199" s="16"/>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E200" s="16"/>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E201" s="16"/>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E202" s="16"/>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E203" s="16"/>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E204" s="16"/>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E205" s="16"/>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E206" s="16"/>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E207" s="16"/>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E208" s="16"/>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209" s="16"/>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E210" s="16"/>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E211" s="16"/>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E212" s="16"/>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E213" s="16"/>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E214" s="16"/>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E215" s="16"/>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E216" s="16"/>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E217" s="16"/>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E218" s="16"/>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E219" s="16"/>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E220" s="16"/>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E221" s="16"/>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E222" s="16"/>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E223" s="16"/>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E224" s="16"/>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225" s="16"/>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E226" s="16"/>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E227" s="16"/>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E228" s="16"/>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E229" s="16"/>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E230" s="16"/>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E231" s="16"/>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E232" s="16"/>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E233" s="16"/>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E234" s="16"/>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E235" s="16"/>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E236" s="16"/>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E237" s="16"/>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238" s="16"/>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239" s="16"/>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240" s="16"/>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" s="16"/>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242" s="16"/>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" s="16"/>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" s="16"/>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245" s="16"/>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246" s="16"/>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" s="16"/>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" s="16"/>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249" s="16"/>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250" s="16"/>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251" s="16"/>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252" s="16"/>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253" s="16"/>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254" s="16"/>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255" s="16"/>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256" s="16"/>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257" s="16"/>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258" s="16"/>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E259" s="16"/>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260" s="16"/>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E261" s="16"/>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262" s="16"/>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E263" s="16"/>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264" s="16"/>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E265" s="16"/>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266" s="16"/>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E267" s="16"/>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E268" s="16"/>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E269" s="16"/>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270" s="16"/>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E271" s="16"/>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272" s="16"/>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E273" s="16"/>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274" s="16"/>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E275" s="16"/>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E276" s="16"/>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E277" s="16"/>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E278" s="16"/>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E279" s="16"/>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E280" s="16"/>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E281" s="16"/>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E282" s="16"/>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E283" s="16"/>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E284" s="16"/>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E285" s="16"/>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E286" s="16"/>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E287" s="16"/>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E288" s="16"/>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E289" s="16"/>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E290" s="16"/>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E291" s="16"/>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E292" s="16"/>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E293" s="16"/>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E294" s="16"/>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E295" s="16"/>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E296" s="16"/>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E297" s="16"/>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E298" s="16"/>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E299" s="16"/>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E300" s="16"/>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E301" s="16"/>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E302" s="16"/>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E303" s="16"/>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E304" s="16"/>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E305" s="16"/>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E306" s="16"/>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E307" s="16"/>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E308" s="16"/>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E309" s="16"/>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E310" s="16"/>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E311" s="16"/>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E312" s="16"/>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E313" s="16"/>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E314" s="16"/>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E315" s="16"/>
+    </row>
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E316" s="16"/>
+    </row>
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E317" s="16"/>
+    </row>
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E318" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A97:C97"/>
+  <mergeCells count="17">
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A99:C99"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E62:F62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Translation sheets/Translation-form.xlsx
+++ b/Translation sheets/Translation-form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="211">
   <si>
     <t>English</t>
   </si>
@@ -675,6 +675,15 @@
   </si>
   <si>
     <t>0.9.2</t>
+  </si>
+  <si>
+    <t>Prisoner Interaction Mode</t>
+  </si>
+  <si>
+    <t>PrisonLabor_workOption.label</t>
+  </si>
+  <si>
+    <t>PrisonLabor_workAndRecruitOption.label</t>
   </si>
 </sst>
 </file>
@@ -756,7 +765,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -980,11 +989,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1037,6 +1083,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,14 +1115,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1383,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B04E6-7593-465F-8DFF-3C928DB22BF4}">
-  <dimension ref="A1:H318"/>
+  <dimension ref="A1:H321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,26 +1474,26 @@
         <v>1</v>
       </c>
       <c r="D1" s="17"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="33"/>
+      <c r="H1" s="23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="H2" s="32" t="s">
+      <c r="F2" s="27"/>
+      <c r="H2" s="22" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2321,16 +2386,16 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="27"/>
       <c r="G48" t="s">
         <v>159</v>
       </c>
@@ -2516,16 +2581,16 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="27"/>
       <c r="G59" t="s">
         <v>159</v>
       </c>
@@ -2567,16 +2632,16 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="F62" s="27"/>
       <c r="G62" t="s">
         <v>159</v>
       </c>
@@ -2644,16 +2709,16 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="30"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
       <c r="D67" s="17"/>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F67" s="23"/>
+      <c r="F67" s="27"/>
       <c r="G67" t="s">
         <v>159</v>
       </c>
@@ -2708,16 +2773,16 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="30"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="22" t="s">
+      <c r="E71" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="F71" s="23"/>
+      <c r="F71" s="27"/>
       <c r="G71" t="s">
         <v>159</v>
       </c>
@@ -2821,16 +2886,16 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="C77" s="30"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
       <c r="D77" s="17"/>
-      <c r="E77" s="24" t="s">
+      <c r="E77" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="F77" s="25"/>
+      <c r="F77" s="29"/>
       <c r="G77" t="s">
         <v>159</v>
       </c>
@@ -2846,7 +2911,7 @@
         <v>183</v>
       </c>
       <c r="F78" s="19" t="str">
-        <f t="shared" ref="F78:F98" si="4">"&lt;"&amp;E78&amp;"&gt;"&amp;C78&amp;"&lt;/"&amp;E78&amp;"&gt;"</f>
+        <f t="shared" ref="F78:F101" si="4">"&lt;"&amp;E78&amp;"&gt;"&amp;C78&amp;"&lt;/"&amp;E78&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_SupervisePrisonLabor.label&gt;&lt;/PrisonLabor_SupervisePrisonLabor.label&gt;</v>
       </c>
       <c r="G78" t="s">
@@ -3230,7 +3295,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="15" t="s">
         <v>105</v>
       </c>
       <c r="B98" s="6" t="s">
@@ -3249,72 +3314,82 @@
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="30" t="s">
+    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" s="39"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="31"/>
+      <c r="G99" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="9" t="str">
+        <f>C3&amp;""</f>
+        <v/>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F100" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_workOption.label&gt;&lt;/PrisonLabor_workOption.label&gt;</v>
+      </c>
+      <c r="G100" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="37"/>
+      <c r="B101" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="35" t="str">
+        <f>C4&amp;""</f>
+        <v/>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="F101" s="19" t="str">
+        <f t="shared" si="4"/>
+        <v>&lt;PrisonLabor_workAndRecruitOption.label&gt;&lt;/PrisonLabor_workAndRecruitOption.label&gt;</v>
+      </c>
+      <c r="G101" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="30"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="26"/>
-      <c r="F99" s="27"/>
-      <c r="G99" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+      <c r="B102" s="24"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="31"/>
+      <c r="G102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B103" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="19"/>
-      <c r="G100" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="270" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="19"/>
-      <c r="G101" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="19"/>
-      <c r="G102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C103" s="5"/>
+      <c r="C103" s="9"/>
       <c r="D103" s="17"/>
       <c r="E103" s="18"/>
       <c r="F103" s="19"/>
@@ -3322,32 +3397,65 @@
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="270" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="17"/>
-      <c r="E104" s="20"/>
-      <c r="F104" s="21"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="19"/>
       <c r="G104" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="19"/>
+      <c r="G105" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="19"/>
+      <c r="G106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="21"/>
+      <c r="G107" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D108" s="16"/>
@@ -3554,57 +3662,60 @@
       <c r="E158" s="16"/>
     </row>
     <row r="159" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D159" s="16"/>
       <c r="E159" s="16"/>
     </row>
     <row r="160" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D160" s="16"/>
       <c r="E160" s="16"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D161" s="16"/>
       <c r="E161" s="16"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E162" s="16"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E163" s="16"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E164" s="16"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E165" s="16"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E166" s="16"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E167" s="16"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E168" s="16"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E169" s="16"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E170" s="16"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E171" s="16"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E172" s="16"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E173" s="16"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E174" s="16"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E175" s="16"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E176" s="16"/>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
@@ -4033,25 +4144,36 @@
     <row r="318" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E318" s="16"/>
     </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E319" s="16"/>
+    </row>
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E320" s="16"/>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E99:F99"/>
     <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A102:C102"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A71:C71"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="A99:C99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Translation sheets/Translation-form.xlsx
+++ b/Translation sheets/Translation-form.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\Prison Labor Mod\Translation sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2FD3DE-5189-4657-AC21-7939E2735B91}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" xr2:uid="{CF5D6EBD-60F8-43F9-A1CC-353B0616DA62}"/>
   </bookViews>
@@ -332,12 +333,6 @@
 [/list]</t>
   </si>
   <si>
-    <t>[h1]Links[/h1]
-[url=]Download[/url]
-[url=]Github[/url]
-[url=]Credits[/url]</t>
-  </si>
-  <si>
     <t>settings item</t>
   </si>
   <si>
@@ -684,6 +679,14 @@
   </si>
   <si>
     <t>PrisonLabor_workAndRecruitOption.label</t>
+  </si>
+  <si>
+    <t>[h1]Links[/h1]
+[url=]Download[/url]
+[url=]Report bug[/url]
+[utl=]To-do list[/url]
+[url=]Github[/url]
+[url=]Credits[/url]</t>
   </si>
 </sst>
 </file>
@@ -1085,11 +1088,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1115,15 +1122,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1450,8 +1453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B04E6-7593-465F-8DFF-3C928DB22BF4}">
   <dimension ref="A1:H321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,27 +1477,27 @@
         <v>1</v>
       </c>
       <c r="D1" s="17"/>
-      <c r="E1" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="33"/>
+      <c r="E1" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="35"/>
       <c r="H1" s="23" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F2" s="27"/>
+      <c r="E2" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="29"/>
       <c r="H2" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,14 +1508,14 @@
       <c r="C3" s="9"/>
       <c r="D3" s="17"/>
       <c r="E3" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" s="19" t="str">
         <f>"&lt;"&amp;E3&amp;"&gt;"&amp;C3&amp;"&lt;/"&amp;E3&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_PrisonerWork&gt;&lt;/PrisonLabor_PrisonerWork&gt;</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1523,14 +1526,14 @@
       <c r="C4" s="5"/>
       <c r="D4" s="17"/>
       <c r="E4" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="19" t="str">
         <f t="shared" ref="F4:F47" si="0">"&lt;"&amp;E4&amp;"&gt;"&amp;C4&amp;"&lt;/"&amp;E4&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_WorkAndRecruit&gt;&lt;/PrisonLabor_WorkAndRecruit&gt;</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1541,14 +1544,14 @@
       <c r="C5" s="5"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LazyPrisonerMessage&gt;&lt;/PrisonLabor_LazyPrisonerMessage&gt;</v>
       </c>
       <c r="G5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1559,14 +1562,14 @@
       <c r="C6" s="5"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_WardenResponeThreshold&gt;&lt;/PrisonLabor_WardenResponeThreshold&gt;</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1577,14 +1580,14 @@
       <c r="C7" s="5"/>
       <c r="D7" s="17"/>
       <c r="E7" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_StoppingWorkThreshold&gt;&lt;/PrisonLabor_StoppingWorkThreshold&gt;</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1595,19 +1598,19 @@
       <c r="C8" s="5"/>
       <c r="D8" s="17"/>
       <c r="E8" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_WorkTypeDisabled&gt;&lt;/PrisonLabor_WorkTypeDisabled&gt;</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
@@ -1615,19 +1618,19 @@
       <c r="C9" s="5"/>
       <c r="D9" s="17"/>
       <c r="E9" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ShowNews&gt;&lt;/PrisonLabor_ShowNews&gt;</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -1635,19 +1638,19 @@
       <c r="C10" s="5"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ShowNewsDesc&gt;&lt;/PrisonLabor_ShowNewsDesc&gt;</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -1655,19 +1658,19 @@
       <c r="C11" s="5"/>
       <c r="D11" s="17"/>
       <c r="E11" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DefaultInterMode&gt;&lt;/PrisonLabor_DefaultInterMode&gt;</v>
       </c>
       <c r="G11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>13</v>
@@ -1675,19 +1678,19 @@
       <c r="C12" s="5"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_AllowedWorkTypes&gt;&lt;/PrisonLabor_AllowedWorkTypes&gt;</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -1695,19 +1698,19 @@
       <c r="C13" s="5"/>
       <c r="D13" s="17"/>
       <c r="E13" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F13" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_AllowAll&gt;&lt;/PrisonLabor_AllowAll&gt;</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>15</v>
@@ -1715,19 +1718,19 @@
       <c r="C14" s="5"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_AllowAllWorktypes&gt;&lt;/PrisonLabor_AllowAllWorktypes&gt;</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>16</v>
@@ -1735,19 +1738,19 @@
       <c r="C15" s="5"/>
       <c r="D15" s="17"/>
       <c r="E15" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_AllowedWorktypesL&gt;&lt;/PrisonLabor_AllowedWorktypesL&gt;</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
@@ -1755,19 +1758,19 @@
       <c r="C16" s="5"/>
       <c r="D16" s="17"/>
       <c r="E16" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_Browse&gt;&lt;/PrisonLabor_Browse&gt;</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>18</v>
@@ -1775,19 +1778,19 @@
       <c r="C17" s="5"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_MotivationMechanics&gt;&lt;/PrisonLabor_MotivationMechanics&gt;</v>
       </c>
       <c r="G17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
@@ -1795,59 +1798,59 @@
       <c r="C18" s="5"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_MotivationWarning&gt;&lt;/PrisonLabor_MotivationWarning&gt;</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="17"/>
       <c r="E19" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_MotivationIcons&gt;&lt;/PrisonLabor_MotivationIcons&gt;</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="17"/>
       <c r="E20" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="19" t="str">
         <f>"&lt;"&amp;E20&amp;"&gt;"&amp;C20&amp;"&lt;/"&amp;E20&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_MotivationIconsDesc&gt;&lt;/PrisonLabor_MotivationIconsDesc&gt;</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
@@ -1855,19 +1858,19 @@
       <c r="C21" s="5"/>
       <c r="D21" s="17"/>
       <c r="E21" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F21" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_CanGrowAdvanced&gt;&lt;/PrisonLabor_CanGrowAdvanced&gt;</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
@@ -1875,19 +1878,19 @@
       <c r="C22" s="5"/>
       <c r="D22" s="17"/>
       <c r="E22" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F22" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_CanGrowAdvancedDesc&gt;&lt;/PrisonLabor_CanGrowAdvancedDesc&gt;</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>22</v>
@@ -1895,19 +1898,19 @@
       <c r="C23" s="5"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F23" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_RestartInfo&gt;&lt;/PrisonLabor_RestartInfo&gt;</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>23</v>
@@ -1915,19 +1918,19 @@
       <c r="C24" s="5"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_RestartInfo2&gt;&lt;/PrisonLabor_RestartInfo2&gt;</v>
       </c>
       <c r="G24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>24</v>
@@ -1935,19 +1938,19 @@
       <c r="C25" s="5"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F25" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DisableMod&gt;&lt;/PrisonLabor_DisableMod&gt;</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>25</v>
@@ -1955,19 +1958,19 @@
       <c r="C26" s="5"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F26" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DisableModDesc&gt;&lt;/PrisonLabor_DisableModDesc&gt;</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>26</v>
@@ -1975,19 +1978,19 @@
       <c r="C27" s="5"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F27" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_Version&gt;&lt;/PrisonLabor_Version&gt;</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>27</v>
@@ -1995,19 +1998,19 @@
       <c r="C28" s="5"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F28" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_Difficulty&gt;&lt;/PrisonLabor_Difficulty&gt;</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>28</v>
@@ -2015,19 +2018,19 @@
       <c r="C29" s="5"/>
       <c r="D29" s="17"/>
       <c r="E29" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_Defaults&gt;&lt;/PrisonLabor_Defaults&gt;</v>
       </c>
       <c r="G29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>29</v>
@@ -2035,19 +2038,19 @@
       <c r="C30" s="5"/>
       <c r="D30" s="17"/>
       <c r="E30" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F30" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DifficultyNormal&gt;&lt;/PrisonLabor_DifficultyNormal&gt;</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>30</v>
@@ -2055,19 +2058,19 @@
       <c r="C31" s="5"/>
       <c r="D31" s="17"/>
       <c r="E31" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F31" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DifficultyCasual&gt;&lt;/PrisonLabor_DifficultyCasual&gt;</v>
       </c>
       <c r="G31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>31</v>
@@ -2075,19 +2078,19 @@
       <c r="C32" s="5"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DifficultyEasy&gt;&lt;/PrisonLabor_DifficultyEasy&gt;</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>32</v>
@@ -2095,19 +2098,19 @@
       <c r="C33" s="5"/>
       <c r="D33" s="17"/>
       <c r="E33" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DifficultyPeaceful&gt;&lt;/PrisonLabor_DifficultyPeaceful&gt;</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>33</v>
@@ -2115,19 +2118,19 @@
       <c r="C34" s="5"/>
       <c r="D34" s="17"/>
       <c r="E34" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_DifficultyJoke&gt;&lt;/PrisonLabor_DifficultyJoke&gt;</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>34</v>
@@ -2135,19 +2138,19 @@
       <c r="C35" s="5"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LazyPrisonerAlert&gt;&lt;/PrisonLabor_LazyPrisonerAlert&gt;</v>
       </c>
       <c r="G35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>35</v>
@@ -2155,19 +2158,19 @@
       <c r="C36" s="5"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F36" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LazyPrisonerExplanationDef&gt;&lt;/PrisonLabor_LazyPrisonerExplanationDef&gt;</v>
       </c>
       <c r="G36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>36</v>
@@ -2175,19 +2178,19 @@
       <c r="C37" s="5"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F37" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LazyPrisonerExplanation&gt;&lt;/PrisonLabor_LazyPrisonerExplanation&gt;</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>37</v>
@@ -2195,19 +2198,19 @@
       <c r="C38" s="5"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F38" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_StarvingPrisonerAlert&gt;&lt;/PrisonLabor_StarvingPrisonerAlert&gt;</v>
       </c>
       <c r="G38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>38</v>
@@ -2215,19 +2218,19 @@
       <c r="C39" s="5"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F39" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_StarvingPrisonerExplanationDef&gt;&lt;/PrisonLabor_StarvingPrisonerExplanationDef&gt;</v>
       </c>
       <c r="G39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>39</v>
@@ -2235,19 +2238,19 @@
       <c r="C40" s="5"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F40" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_StarvingPrionserExplanation&gt;&lt;/PrisonLabor_StarvingPrionserExplanation&gt;</v>
       </c>
       <c r="G40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>40</v>
@@ -2255,19 +2258,19 @@
       <c r="C41" s="5"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F41" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LaborArea&gt;&lt;/PrisonLabor_LaborArea&gt;</v>
       </c>
       <c r="G41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>41</v>
@@ -2275,19 +2278,19 @@
       <c r="C42" s="5"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F42" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_LaborAreaDesc&gt;&lt;/PrisonLabor_LaborAreaDesc&gt;</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>42</v>
@@ -2295,19 +2298,19 @@
       <c r="C43" s="5"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F43" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ClearLaborArea&gt;&lt;/PrisonLabor_ClearLaborArea&gt;</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>43</v>
@@ -2315,19 +2318,19 @@
       <c r="C44" s="5"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ExpandLaborArea&gt;&lt;/PrisonLabor_ExpandLaborArea&gt;</v>
       </c>
       <c r="G44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>44</v>
@@ -2335,19 +2338,19 @@
       <c r="C45" s="5"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F45" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ColonistsOnly&gt;&lt;/PrisonLabor_ColonistsOnly&gt;</v>
       </c>
       <c r="G45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>45</v>
@@ -2355,19 +2358,19 @@
       <c r="C46" s="5"/>
       <c r="D46" s="17"/>
       <c r="E46" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F46" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_PrisonersOnly&gt;&lt;/PrisonLabor_PrisonersOnly&gt;</v>
       </c>
       <c r="G46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>46</v>
@@ -2375,29 +2378,29 @@
       <c r="C47" s="7"/>
       <c r="D47" s="17"/>
       <c r="E47" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" s="19" t="str">
         <f t="shared" si="0"/>
         <v>&lt;PrisonLabor_ColonyOnly&gt;&lt;/PrisonLabor_ColonyOnly&gt;</v>
       </c>
       <c r="G47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="28" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="27"/>
+      <c r="F48" s="29"/>
       <c r="G48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2408,14 +2411,14 @@
       <c r="C49" s="9"/>
       <c r="D49" s="17"/>
       <c r="E49" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F49" s="19" t="str">
         <f>"&lt;"&amp;E49&amp;"&gt;"&amp;C49&amp;"&lt;/"&amp;E49&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_Indroduction.label&gt;&lt;/PrisonLabor_Indroduction.label&gt;</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="150" x14ac:dyDescent="0.25">
@@ -2426,14 +2429,14 @@
       <c r="C50" s="5"/>
       <c r="D50" s="17"/>
       <c r="E50" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F50" s="19" t="str">
         <f t="shared" ref="F50:F64" si="1">"&lt;"&amp;E50&amp;"&gt;"&amp;C50&amp;"&lt;/"&amp;E50&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_Indroduction.helpText&gt;&lt;/PrisonLabor_Indroduction.helpText&gt;</v>
       </c>
       <c r="G50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2444,14 +2447,14 @@
       <c r="C51" s="5"/>
       <c r="D51" s="17"/>
       <c r="E51" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F51" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Motivation.label&gt;&lt;/PrisonLabor_Motivation.label&gt;</v>
       </c>
       <c r="G51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2462,14 +2465,14 @@
       <c r="C52" s="5"/>
       <c r="D52" s="17"/>
       <c r="E52" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F52" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Motivation.helpText&gt;&lt;/PrisonLabor_Motivation.helpText&gt;</v>
       </c>
       <c r="G52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2480,14 +2483,14 @@
       <c r="C53" s="5"/>
       <c r="D53" s="17"/>
       <c r="E53" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F53" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Growing.label&gt;&lt;/PrisonLabor_Growing.label&gt;</v>
       </c>
       <c r="G53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2498,14 +2501,14 @@
       <c r="C54" s="5"/>
       <c r="D54" s="17"/>
       <c r="E54" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F54" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Growing.helpText&gt;&lt;/PrisonLabor_Growing.helpText&gt;</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2516,14 +2519,14 @@
       <c r="C55" s="5"/>
       <c r="D55" s="17"/>
       <c r="E55" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F55" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Management.label&gt;&lt;/PrisonLabor_Management.label&gt;</v>
       </c>
       <c r="G55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -2534,14 +2537,14 @@
       <c r="C56" s="5"/>
       <c r="D56" s="17"/>
       <c r="E56" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F56" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Management.helpText&gt;&lt;/PrisonLabor_Management.helpText&gt;</v>
       </c>
       <c r="G56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2552,14 +2555,14 @@
       <c r="C57" s="5"/>
       <c r="D57" s="17"/>
       <c r="E57" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F57" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Timetable.label&gt;&lt;/PrisonLabor_Timetable.label&gt;</v>
       </c>
       <c r="G57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2570,29 +2573,29 @@
       <c r="C58" s="7"/>
       <c r="D58" s="17"/>
       <c r="E58" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F58" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Timetable.helpText&gt;&lt;/PrisonLabor_Timetable.helpText&gt;</v>
       </c>
       <c r="G58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="17"/>
-      <c r="E59" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="27"/>
+      <c r="E59" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F59" s="29"/>
       <c r="G59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2603,14 +2606,14 @@
       <c r="C60" s="9"/>
       <c r="D60" s="17"/>
       <c r="E60" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F60" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Motivation.label&gt;&lt;/PrisonLabor_Motivation.label&gt;</v>
       </c>
       <c r="G60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2621,29 +2624,29 @@
       <c r="C61" s="7"/>
       <c r="D61" s="17"/>
       <c r="E61" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F61" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_Motivation.description&gt;&lt;/PrisonLabor_Motivation.description&gt;</v>
       </c>
       <c r="G61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
+      <c r="A62" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="F62" s="27"/>
+      <c r="E62" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F62" s="29"/>
       <c r="G62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2654,14 +2657,14 @@
       <c r="C63" s="9"/>
       <c r="D63" s="17"/>
       <c r="E63" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F63" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_PrisonerChains.stages.0.label&gt;&lt;/PrisonLabor_PrisonerChains.stages.0.label&gt;</v>
       </c>
       <c r="G63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2672,14 +2675,14 @@
       <c r="C64" s="5"/>
       <c r="D64" s="17"/>
       <c r="E64" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F64" s="19" t="str">
         <f t="shared" si="1"/>
         <v>&lt;PrisonLabor_PrisonerChains.stages.1.label&gt;&lt;/PrisonLabor_PrisonerChains.stages.1.label&gt;</v>
       </c>
       <c r="G64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2692,7 +2695,7 @@
       <c r="E65" s="18"/>
       <c r="F65" s="19"/>
       <c r="G65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2705,22 +2708,22 @@
       <c r="E66" s="18"/>
       <c r="F66" s="19"/>
       <c r="G66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
       <c r="D67" s="17"/>
-      <c r="E67" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="F67" s="27"/>
+      <c r="E67" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" s="29"/>
       <c r="G67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,14 +2734,14 @@
       <c r="C68" s="9"/>
       <c r="D68" s="17"/>
       <c r="E68" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F68" s="19" t="str">
         <f t="shared" ref="F68:F69" si="2">"&lt;"&amp;E68&amp;"&gt;"&amp;C68&amp;"&lt;/"&amp;E68&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_Revolt.label&gt;&lt;/PrisonLabor_Revolt.label&gt;</v>
       </c>
       <c r="G68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2749,14 +2752,14 @@
       <c r="C69" s="5"/>
       <c r="D69" s="17"/>
       <c r="E69" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F69" s="19" t="str">
         <f t="shared" si="2"/>
         <v>&lt;PrisonLabor_Revolt.letterLabel&gt;&lt;/PrisonLabor_Revolt.letterLabel&gt;</v>
       </c>
       <c r="G69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2769,22 +2772,22 @@
       <c r="E70" s="18"/>
       <c r="F70" s="19"/>
       <c r="G70" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="F71" s="27"/>
+      <c r="E71" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" s="29"/>
       <c r="G71" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2795,19 +2798,19 @@
       <c r="C72" s="9"/>
       <c r="D72" s="17"/>
       <c r="E72" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F72" s="19" t="str">
         <f t="shared" ref="F72:F76" si="3">"&lt;"&amp;E72&amp;"&gt;"&amp;C72&amp;"&lt;/"&amp;E72&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_PrisonerSupervise.reportString&gt;&lt;/PrisonLabor_PrisonerSupervise.reportString&gt;</v>
       </c>
       <c r="G72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>71</v>
@@ -2815,19 +2818,19 @@
       <c r="C73" s="5"/>
       <c r="D73" s="17"/>
       <c r="E73" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F73" s="19" t="str">
         <f t="shared" si="3"/>
         <v>&lt;PrisonLabor_DeliverFood_Tweak.reportString&gt;&lt;/PrisonLabor_DeliverFood_Tweak.reportString&gt;</v>
       </c>
       <c r="G73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>72</v>
@@ -2835,19 +2838,19 @@
       <c r="C74" s="5"/>
       <c r="D74" s="17"/>
       <c r="E74" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F74" s="19" t="str">
         <f t="shared" si="3"/>
         <v>&lt;PrisonLabor_Mine_Tweak.reportString&gt;&lt;/PrisonLabor_Mine_Tweak.reportString&gt;</v>
       </c>
       <c r="G74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>73</v>
@@ -2855,19 +2858,19 @@
       <c r="C75" s="5"/>
       <c r="D75" s="17"/>
       <c r="E75" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F75" s="19" t="str">
         <f t="shared" si="3"/>
         <v>&lt;PrisonLabor_Harvest_Tweak.reportString&gt;&lt;/PrisonLabor_Harvest_Tweak.reportString&gt;</v>
       </c>
       <c r="G75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>74</v>
@@ -2875,29 +2878,29 @@
       <c r="C76" s="7"/>
       <c r="D76" s="17"/>
       <c r="E76" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F76" s="19" t="str">
         <f t="shared" si="3"/>
         <v>&lt;PrisonLabor_CutPlant_Tweak.reportString&gt;&lt;/PrisonLabor_CutPlant_Tweak.reportString&gt;</v>
       </c>
       <c r="G76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
       <c r="D77" s="17"/>
-      <c r="E77" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="F77" s="29"/>
+      <c r="E77" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="F77" s="31"/>
       <c r="G77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2908,14 +2911,14 @@
       <c r="C78" s="9"/>
       <c r="D78" s="17"/>
       <c r="E78" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F78" s="19" t="str">
         <f t="shared" ref="F78:F101" si="4">"&lt;"&amp;E78&amp;"&gt;"&amp;C78&amp;"&lt;/"&amp;E78&amp;"&gt;"</f>
         <v>&lt;PrisonLabor_SupervisePrisonLabor.label&gt;&lt;/PrisonLabor_SupervisePrisonLabor.label&gt;</v>
       </c>
       <c r="G78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2926,14 +2929,14 @@
       <c r="C79" s="5"/>
       <c r="D79" s="17"/>
       <c r="E79" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F79" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_SupervisePrisonLabor.verb&gt;&lt;/PrisonLabor_SupervisePrisonLabor.verb&gt;</v>
       </c>
       <c r="G79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2944,19 +2947,19 @@
       <c r="C80" s="5"/>
       <c r="D80" s="17"/>
       <c r="E80" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F80" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_SupervisePrisonLabor.gerund&gt;&lt;/PrisonLabor_SupervisePrisonLabor.gerund&gt;</v>
       </c>
       <c r="G80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>78</v>
@@ -2964,19 +2967,19 @@
       <c r="C81" s="5"/>
       <c r="D81" s="17"/>
       <c r="E81" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F81" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.label&gt;&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.label&gt;</v>
       </c>
       <c r="G81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>79</v>
@@ -2984,19 +2987,19 @@
       <c r="C82" s="5"/>
       <c r="D82" s="17"/>
       <c r="E82" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F82" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.verb&gt;&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.verb&gt;</v>
       </c>
       <c r="G82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>80</v>
@@ -3004,19 +3007,19 @@
       <c r="C83" s="5"/>
       <c r="D83" s="17"/>
       <c r="E83" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F83" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.gerund&gt;&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.gerund&gt;</v>
       </c>
       <c r="G83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>81</v>
@@ -3024,19 +3027,19 @@
       <c r="C84" s="5"/>
       <c r="D84" s="17"/>
       <c r="E84" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F84" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_Mine_Tweak.label&gt;&lt;/PrisonLabor_Mine_Tweak.label&gt;</v>
       </c>
       <c r="G84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>81</v>
@@ -3044,19 +3047,19 @@
       <c r="C85" s="5"/>
       <c r="D85" s="17"/>
       <c r="E85" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F85" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_Mine_Tweak.verb&gt;&lt;/PrisonLabor_Mine_Tweak.verb&gt;</v>
       </c>
       <c r="G85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>82</v>
@@ -3064,19 +3067,19 @@
       <c r="C86" s="5"/>
       <c r="D86" s="17"/>
       <c r="E86" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F86" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_Mine_Tweak.gerund&gt;&lt;/PrisonLabor_Mine_Tweak.gerund&gt;</v>
       </c>
       <c r="G86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>83</v>
@@ -3084,19 +3087,19 @@
       <c r="C87" s="5"/>
       <c r="D87" s="17"/>
       <c r="E87" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F87" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_PlantsCut_Tweak.label&gt;&lt;/PrisonLabor_PlantsCut_Tweak.label&gt;</v>
       </c>
       <c r="G87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>84</v>
@@ -3104,19 +3107,19 @@
       <c r="C88" s="5"/>
       <c r="D88" s="17"/>
       <c r="E88" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F88" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_PlantsCut_Tweak.verb&gt;&lt;/PrisonLabor_PlantsCut_Tweak.verb&gt;</v>
       </c>
       <c r="G88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>85</v>
@@ -3124,19 +3127,19 @@
       <c r="C89" s="5"/>
       <c r="D89" s="17"/>
       <c r="E89" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_PlantsCut_Tweak.gerund&gt;&lt;/PrisonLabor_PlantsCut_Tweak.gerund&gt;</v>
       </c>
       <c r="G89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>86</v>
@@ -3144,19 +3147,19 @@
       <c r="C90" s="5"/>
       <c r="D90" s="17"/>
       <c r="E90" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F90" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerHarvest_Tweak.label&gt;&lt;/PrisonLabor_GrowerHarvest_Tweak.label&gt;</v>
       </c>
       <c r="G90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>87</v>
@@ -3164,19 +3167,19 @@
       <c r="C91" s="5"/>
       <c r="D91" s="17"/>
       <c r="E91" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F91" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerHarvest_Tweak.verb&gt;&lt;/PrisonLabor_GrowerHarvest_Tweak.verb&gt;</v>
       </c>
       <c r="G91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>88</v>
@@ -3184,19 +3187,19 @@
       <c r="C92" s="5"/>
       <c r="D92" s="17"/>
       <c r="E92" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F92" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerHarvest_Tweak.gerund&gt;&lt;/PrisonLabor_GrowerHarvest_Tweak.gerund&gt;</v>
       </c>
       <c r="G92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>89</v>
@@ -3204,19 +3207,19 @@
       <c r="C93" s="5"/>
       <c r="D93" s="17"/>
       <c r="E93" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F93" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerSow_Tweak.label&gt;&lt;/PrisonLabor_GrowerSow_Tweak.label&gt;</v>
       </c>
       <c r="G93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>90</v>
@@ -3224,19 +3227,19 @@
       <c r="C94" s="5"/>
       <c r="D94" s="17"/>
       <c r="E94" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F94" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerSow_Tweak.verb&gt;&lt;/PrisonLabor_GrowerSow_Tweak.verb&gt;</v>
       </c>
       <c r="G94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>91</v>
@@ -3244,19 +3247,19 @@
       <c r="C95" s="5"/>
       <c r="D95" s="17"/>
       <c r="E95" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F95" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_GrowerSow_Tweak.gerund&gt;&lt;/PrisonLabor_GrowerSow_Tweak.gerund&gt;</v>
       </c>
       <c r="G95" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>92</v>
@@ -3264,19 +3267,19 @@
       <c r="C96" s="5"/>
       <c r="D96" s="17"/>
       <c r="E96" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F96" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_CleanFilth_Tweak.label&gt;&lt;/PrisonLabor_CleanFilth_Tweak.label&gt;</v>
       </c>
       <c r="G96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>93</v>
@@ -3284,19 +3287,19 @@
       <c r="C97" s="5"/>
       <c r="D97" s="17"/>
       <c r="E97" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F97" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_CleanFilth_Tweak.verb&gt;&lt;/PrisonLabor_CleanFilth_Tweak.verb&gt;</v>
       </c>
       <c r="G97" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>94</v>
@@ -3304,27 +3307,27 @@
       <c r="C98" s="7"/>
       <c r="D98" s="17"/>
       <c r="E98" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F98" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_CleanFilth_Tweak.gerund&gt;&lt;/PrisonLabor_CleanFilth_Tweak.gerund&gt;</v>
       </c>
       <c r="G98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="40"/>
       <c r="D99" s="17"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="31"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="33"/>
       <c r="G99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3337,49 +3340,49 @@
         <v/>
       </c>
       <c r="D100" s="17"/>
-      <c r="E100" s="36" t="s">
-        <v>209</v>
+      <c r="E100" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="F100" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_workOption.label&gt;&lt;/PrisonLabor_workOption.label&gt;</v>
       </c>
       <c r="G100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="37"/>
-      <c r="B101" s="34" t="s">
+      <c r="A101" s="27"/>
+      <c r="B101" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="35" t="str">
+      <c r="C101" s="25" t="str">
         <f>C4&amp;""</f>
         <v/>
       </c>
       <c r="D101" s="17"/>
-      <c r="E101" s="36" t="s">
-        <v>210</v>
+      <c r="E101" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="F101" s="19" t="str">
         <f t="shared" si="4"/>
         <v>&lt;PrisonLabor_workAndRecruitOption.label&gt;&lt;/PrisonLabor_workAndRecruitOption.label&gt;</v>
       </c>
       <c r="G101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
       <c r="D102" s="17"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="31"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="33"/>
       <c r="G102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3394,7 +3397,7 @@
       <c r="E103" s="18"/>
       <c r="F103" s="19"/>
       <c r="G103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="270" x14ac:dyDescent="0.25">
@@ -3409,12 +3412,12 @@
       <c r="E104" s="18"/>
       <c r="F104" s="19"/>
       <c r="G104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>97</v>
@@ -3424,37 +3427,37 @@
       <c r="E105" s="18"/>
       <c r="F105" s="19"/>
       <c r="G105" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="17"/>
       <c r="E106" s="18"/>
       <c r="F106" s="19"/>
       <c r="G106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="17"/>
       <c r="E107" s="20"/>
       <c r="F107" s="21"/>
       <c r="G107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -4155,6 +4158,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A99:C99"/>
     <mergeCell ref="E67:F67"/>
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="E77:F77"/>
@@ -4165,15 +4177,6 @@
     <mergeCell ref="E59:F59"/>
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="E99:F99"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A99:C99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Translation sheets/Translation-form.xlsx
+++ b/Translation sheets/Translation-form.xlsx
@@ -1,30 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repository\Prison Labor Mod\Translation sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avius\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE29C27-B660-409B-9846-1C0851722D37}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8820" xr2:uid="{CF5D6EBD-60F8-43F9-A1CC-353B0616DA62}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Translation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{740405F5-5194-45A7-85A7-58DC21C54F36}" name="template" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\avius\Desktop\template.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" xr16:uid="{D0F73D42-6CC8-41FC-9DAC-47BDA6FD35AB}" name="template1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\avius\Desktop\template.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" xr16:uid="{B903E096-6C17-47E3-BEC4-F63C257B7200}" name="template2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\avius\Desktop\template.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="4" xr16:uid="{BCC78EFC-202C-4B7A-91BD-9A47F69ABA6B}" name="template3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\avius\Desktop\template.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="5" xr16:uid="{8223D1B2-BBCC-43DF-A8C0-62300743625D}" name="template4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\avius\Desktop\template.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="218">
   <si>
     <t>English</t>
   </si>
@@ -685,12 +711,33 @@
   <si>
     <t>PrisonLabor_workAndRecruitOption.label</t>
   </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>0.0.0</t>
+  </si>
+  <si>
+    <t>XML Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>DefInjected\InteractionDefs\PrisonerInteractionModeDef.xml</t>
+  </si>
+  <si>
+    <t>XML Name</t>
+  </si>
+  <si>
+    <t>XML Value</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,8 +773,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,8 +819,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -848,32 +909,139 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="slantDashDot">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="slantDashDot">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
         <color indexed="64"/>
       </left>
       <right/>
@@ -882,48 +1050,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="slantDashDot">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="slantDashDot">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="slantDashDot">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -939,9 +1066,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="slantDashDot">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -953,51 +1091,19 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="slantDashDot">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1005,32 +1111,28 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="slantDashDot">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1078,67 +1180,265 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1149,6 +1449,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema1">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="LanguageData">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="entry" form="unqualified">
+              <xsd:complexType>
+                <xsd:simpleContent>
+                  <xsd:extension base="xsd:string">
+                    <xsd:attribute name="document" form="unqualified" type="xsd:string"/>
+                    <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
+                  </xsd:extension>
+                </xsd:simpleContent>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
+  <Map ID="1" Name="LanguageData_mapa" RootElement="LanguageData" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
+  </Map>
+</MapInfo>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E789CC9E-5DB3-44D7-B3BF-A6DB59D858C3}" name="Tabela1" displayName="Tabela1" ref="I2:K47" tableType="xml" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" tableBorderDxfId="5" connectionId="5">
+  <autoFilter ref="I2:K47" xr:uid="{A0B2254A-B303-4A68-A399-8E0730B7AE6D}"/>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{1779611B-9B22-4127-BE9E-F389F3211919}" uniqueName="document" name="XML Document" dataDxfId="1">
+      <calculatedColumnFormula>H$2</calculatedColumnFormula>
+      <xmlColumnPr mapId="1" xpath="/LanguageData/entry/@document" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{6D15A7F2-3C5D-4018-B0D4-6CFA2A30182A}" uniqueName="name" name="XML Name" dataDxfId="4">
+      <calculatedColumnFormula>H3</calculatedColumnFormula>
+      <xmlColumnPr mapId="1" xpath="/LanguageData/entry/@name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A24B10C1-1422-4C85-927D-9E7372E55E2D}" uniqueName="entry" name="XML Value" dataDxfId="0">
+      <calculatedColumnFormula>C3&amp;""</calculatedColumnFormula>
+      <xmlColumnPr mapId="1" xpath="/LanguageData/entry" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1448,10 +1797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7B04E6-7593-465F-8DFF-3C928DB22BF4}">
-  <dimension ref="A1:H321"/>
+  <sheetPr codeName="Arkusz1"/>
+  <dimension ref="A1:Q321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,11 +1809,16 @@
     <col min="1" max="1" width="28" style="1" customWidth="1"/>
     <col min="2" max="2" width="65.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="68.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="59" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="31" customWidth="1"/>
+    <col min="10" max="11" width="14.28515625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -1474,138 +1829,233 @@
         <v>1</v>
       </c>
       <c r="D1" s="17"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="35"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="H1" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="H2" s="22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="19" t="str">
-        <f>"&lt;"&amp;E3&amp;"&gt;"&amp;C3&amp;"&lt;/"&amp;E3&amp;"&gt;"</f>
-        <v>&lt;PrisonLabor_PrisonerWork&gt;&lt;/PrisonLabor_PrisonerWork&gt;</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="53" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J3" s="52" t="str">
+        <f>H3</f>
+        <v>PrisonLabor_PrisonerWork</v>
+      </c>
+      <c r="K3" s="53" t="str">
+        <f>C3&amp;""</f>
+        <v/>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="19" t="str">
-        <f t="shared" ref="F4:F47" si="0">"&lt;"&amp;E4&amp;"&gt;"&amp;C4&amp;"&lt;/"&amp;E4&amp;"&gt;"</f>
-        <v>&lt;PrisonLabor_WorkAndRecruit&gt;&lt;/PrisonLabor_WorkAndRecruit&gt;</v>
-      </c>
-      <c r="G4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J4" s="52" t="str">
+        <f t="shared" ref="J4:J66" si="0">H4</f>
+        <v>PrisonLabor_WorkAndRecruit</v>
+      </c>
+      <c r="K4" s="52" t="str">
+        <f t="shared" ref="K4:K67" si="1">C4&amp;""</f>
+        <v/>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="17"/>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="19" t="str">
+      <c r="I5" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J5" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_LazyPrisonerMessage&gt;&lt;/PrisonLabor_LazyPrisonerMessage&gt;</v>
-      </c>
-      <c r="G5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_LazyPrisonerMessage</v>
+      </c>
+      <c r="K5" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="19" t="str">
+      <c r="I6" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J6" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_WardenResponeThreshold&gt;&lt;/PrisonLabor_WardenResponeThreshold&gt;</v>
-      </c>
-      <c r="G6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_WardenResponeThreshold</v>
+      </c>
+      <c r="K6" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="17"/>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="19" t="str">
+      <c r="I7" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J7" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_StoppingWorkThreshold&gt;&lt;/PrisonLabor_StoppingWorkThreshold&gt;</v>
-      </c>
-      <c r="G7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_StoppingWorkThreshold</v>
+      </c>
+      <c r="K7" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="17"/>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="19" t="str">
+      <c r="I8" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J8" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_WorkTypeDisabled&gt;&lt;/PrisonLabor_WorkTypeDisabled&gt;</v>
-      </c>
-      <c r="G8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_WorkTypeDisabled</v>
+      </c>
+      <c r="K8" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>100</v>
       </c>
@@ -1614,18 +2064,29 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="17"/>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="19" t="str">
+      <c r="I9" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J9" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_ShowNews&gt;&lt;/PrisonLabor_ShowNews&gt;</v>
-      </c>
-      <c r="G9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_ShowNews</v>
+      </c>
+      <c r="K9" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>100</v>
       </c>
@@ -1634,18 +2095,29 @@
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="17"/>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F10" s="19" t="str">
+      <c r="I10" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J10" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_ShowNewsDesc&gt;&lt;/PrisonLabor_ShowNewsDesc&gt;</v>
-      </c>
-      <c r="G10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_ShowNewsDesc</v>
+      </c>
+      <c r="K10" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>100</v>
       </c>
@@ -1654,18 +2126,29 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="I11" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J11" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_DefaultInterMode&gt;&lt;/PrisonLabor_DefaultInterMode&gt;</v>
-      </c>
-      <c r="G11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_DefaultInterMode</v>
+      </c>
+      <c r="K11" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>100</v>
       </c>
@@ -1674,18 +2157,29 @@
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="17"/>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="19" t="str">
+      <c r="I12" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J12" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_AllowedWorkTypes&gt;&lt;/PrisonLabor_AllowedWorkTypes&gt;</v>
-      </c>
-      <c r="G12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_AllowedWorkTypes</v>
+      </c>
+      <c r="K12" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>100</v>
       </c>
@@ -1694,18 +2188,29 @@
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="19" t="str">
+      <c r="I13" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J13" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_AllowAll&gt;&lt;/PrisonLabor_AllowAll&gt;</v>
-      </c>
-      <c r="G13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_AllowAll</v>
+      </c>
+      <c r="K13" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>100</v>
       </c>
@@ -1714,18 +2219,29 @@
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="19" t="str">
+      <c r="I14" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J14" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_AllowAllWorktypes&gt;&lt;/PrisonLabor_AllowAllWorktypes&gt;</v>
-      </c>
-      <c r="G14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_AllowAllWorktypes</v>
+      </c>
+      <c r="K14" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>100</v>
       </c>
@@ -1734,18 +2250,29 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F15" s="19" t="str">
+      <c r="I15" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J15" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_AllowedWorktypesL&gt;&lt;/PrisonLabor_AllowedWorktypesL&gt;</v>
-      </c>
-      <c r="G15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_AllowedWorktypesL</v>
+      </c>
+      <c r="K15" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>100</v>
       </c>
@@ -1754,18 +2281,29 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="19" t="str">
+      <c r="I16" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J16" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_Browse&gt;&lt;/PrisonLabor_Browse&gt;</v>
-      </c>
-      <c r="G16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_Browse</v>
+      </c>
+      <c r="K16" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>100</v>
       </c>
@@ -1774,18 +2312,29 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="19" t="str">
+      <c r="I17" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J17" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_MotivationMechanics&gt;&lt;/PrisonLabor_MotivationMechanics&gt;</v>
-      </c>
-      <c r="G17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_MotivationMechanics</v>
+      </c>
+      <c r="K17" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>100</v>
       </c>
@@ -1794,18 +2343,29 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="19" t="str">
+      <c r="I18" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J18" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_MotivationWarning&gt;&lt;/PrisonLabor_MotivationWarning&gt;</v>
-      </c>
-      <c r="G18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_MotivationWarning</v>
+      </c>
+      <c r="K18" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L18" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>100</v>
       </c>
@@ -1814,18 +2374,29 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F19" s="19" t="str">
+      <c r="I19" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J19" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_MotivationIcons&gt;&lt;/PrisonLabor_MotivationIcons&gt;</v>
-      </c>
-      <c r="G19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_MotivationIcons</v>
+      </c>
+      <c r="K19" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>100</v>
       </c>
@@ -1834,18 +2405,29 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F20" s="19" t="str">
-        <f>"&lt;"&amp;E20&amp;"&gt;"&amp;C20&amp;"&lt;/"&amp;E20&amp;"&gt;"</f>
-        <v>&lt;PrisonLabor_MotivationIconsDesc&gt;&lt;/PrisonLabor_MotivationIconsDesc&gt;</v>
-      </c>
-      <c r="G20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J20" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_MotivationIconsDesc</v>
+      </c>
+      <c r="K20" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>100</v>
       </c>
@@ -1854,18 +2436,29 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="17"/>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="19" t="str">
+      <c r="I21" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J21" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_CanGrowAdvanced&gt;&lt;/PrisonLabor_CanGrowAdvanced&gt;</v>
-      </c>
-      <c r="G21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_CanGrowAdvanced</v>
+      </c>
+      <c r="K21" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>100</v>
       </c>
@@ -1874,18 +2467,29 @@
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="19" t="str">
+      <c r="I22" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J22" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_CanGrowAdvancedDesc&gt;&lt;/PrisonLabor_CanGrowAdvancedDesc&gt;</v>
-      </c>
-      <c r="G22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_CanGrowAdvancedDesc</v>
+      </c>
+      <c r="K22" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>100</v>
       </c>
@@ -1894,18 +2498,29 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="17"/>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F23" s="19" t="str">
+      <c r="I23" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J23" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_RestartInfo&gt;&lt;/PrisonLabor_RestartInfo&gt;</v>
-      </c>
-      <c r="G23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_RestartInfo</v>
+      </c>
+      <c r="K23" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>100</v>
       </c>
@@ -1914,18 +2529,29 @@
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="F24" s="19" t="str">
+      <c r="I24" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J24" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_RestartInfo2&gt;&lt;/PrisonLabor_RestartInfo2&gt;</v>
-      </c>
-      <c r="G24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_RestartInfo2</v>
+      </c>
+      <c r="K24" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L24" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>100</v>
       </c>
@@ -1934,18 +2560,29 @@
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="19" t="str">
+      <c r="I25" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J25" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_DisableMod&gt;&lt;/PrisonLabor_DisableMod&gt;</v>
-      </c>
-      <c r="G25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_DisableMod</v>
+      </c>
+      <c r="K25" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>100</v>
       </c>
@@ -1954,18 +2591,29 @@
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="19" t="str">
+      <c r="I26" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J26" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_DisableModDesc&gt;&lt;/PrisonLabor_DisableModDesc&gt;</v>
-      </c>
-      <c r="G26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_DisableModDesc</v>
+      </c>
+      <c r="K26" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L26" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>100</v>
       </c>
@@ -1974,18 +2622,29 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="17"/>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="19" t="str">
+      <c r="I27" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J27" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_Version&gt;&lt;/PrisonLabor_Version&gt;</v>
-      </c>
-      <c r="G27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_Version</v>
+      </c>
+      <c r="K27" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>100</v>
       </c>
@@ -1994,18 +2653,29 @@
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="19" t="str">
+      <c r="I28" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J28" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_Difficulty&gt;&lt;/PrisonLabor_Difficulty&gt;</v>
-      </c>
-      <c r="G28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_Difficulty</v>
+      </c>
+      <c r="K28" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L28" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>100</v>
       </c>
@@ -2014,18 +2684,29 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="17"/>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="19" t="str">
+      <c r="I29" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J29" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_Defaults&gt;&lt;/PrisonLabor_Defaults&gt;</v>
-      </c>
-      <c r="G29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_Defaults</v>
+      </c>
+      <c r="K29" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>100</v>
       </c>
@@ -2034,18 +2715,29 @@
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="19" t="str">
+      <c r="I30" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J30" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_DifficultyNormal&gt;&lt;/PrisonLabor_DifficultyNormal&gt;</v>
-      </c>
-      <c r="G30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_DifficultyNormal</v>
+      </c>
+      <c r="K30" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>100</v>
       </c>
@@ -2054,18 +2746,29 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="19" t="str">
+      <c r="I31" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J31" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_DifficultyCasual&gt;&lt;/PrisonLabor_DifficultyCasual&gt;</v>
-      </c>
-      <c r="G31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_DifficultyCasual</v>
+      </c>
+      <c r="K31" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>100</v>
       </c>
@@ -2074,18 +2777,29 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="19" t="str">
+      <c r="I32" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J32" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_DifficultyEasy&gt;&lt;/PrisonLabor_DifficultyEasy&gt;</v>
-      </c>
-      <c r="G32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_DifficultyEasy</v>
+      </c>
+      <c r="K32" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L32" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>100</v>
       </c>
@@ -2094,18 +2808,29 @@
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F33" s="19" t="str">
+      <c r="I33" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J33" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_DifficultyPeaceful&gt;&lt;/PrisonLabor_DifficultyPeaceful&gt;</v>
-      </c>
-      <c r="G33" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_DifficultyPeaceful</v>
+      </c>
+      <c r="K33" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>100</v>
       </c>
@@ -2114,18 +2839,29 @@
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="19" t="str">
+      <c r="I34" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J34" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_DifficultyJoke&gt;&lt;/PrisonLabor_DifficultyJoke&gt;</v>
-      </c>
-      <c r="G34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_DifficultyJoke</v>
+      </c>
+      <c r="K34" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L34" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>101</v>
       </c>
@@ -2134,18 +2870,29 @@
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="19" t="str">
+      <c r="I35" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J35" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_LazyPrisonerAlert&gt;&lt;/PrisonLabor_LazyPrisonerAlert&gt;</v>
-      </c>
-      <c r="G35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_LazyPrisonerAlert</v>
+      </c>
+      <c r="K35" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L35" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>101</v>
       </c>
@@ -2154,18 +2901,29 @@
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F36" s="19" t="str">
+      <c r="I36" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J36" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_LazyPrisonerExplanationDef&gt;&lt;/PrisonLabor_LazyPrisonerExplanationDef&gt;</v>
-      </c>
-      <c r="G36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_LazyPrisonerExplanationDef</v>
+      </c>
+      <c r="K36" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L36" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>101</v>
       </c>
@@ -2174,18 +2932,29 @@
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F37" s="19" t="str">
+      <c r="I37" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J37" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_LazyPrisonerExplanation&gt;&lt;/PrisonLabor_LazyPrisonerExplanation&gt;</v>
-      </c>
-      <c r="G37" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_LazyPrisonerExplanation</v>
+      </c>
+      <c r="K37" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L37" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>101</v>
       </c>
@@ -2194,18 +2963,29 @@
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="19" t="str">
+      <c r="I38" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J38" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_StarvingPrisonerAlert&gt;&lt;/PrisonLabor_StarvingPrisonerAlert&gt;</v>
-      </c>
-      <c r="G38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_StarvingPrisonerAlert</v>
+      </c>
+      <c r="K38" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>101</v>
       </c>
@@ -2214,18 +2994,29 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="19" t="str">
+      <c r="I39" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J39" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_StarvingPrisonerExplanationDef&gt;&lt;/PrisonLabor_StarvingPrisonerExplanationDef&gt;</v>
-      </c>
-      <c r="G39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_StarvingPrisonerExplanationDef</v>
+      </c>
+      <c r="K39" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>101</v>
       </c>
@@ -2234,18 +3025,29 @@
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="19" t="str">
+      <c r="I40" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J40" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_StarvingPrionserExplanation&gt;&lt;/PrisonLabor_StarvingPrionserExplanation&gt;</v>
-      </c>
-      <c r="G40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_StarvingPrionserExplanation</v>
+      </c>
+      <c r="K40" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L40" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>102</v>
       </c>
@@ -2254,18 +3056,29 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="17"/>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="19" t="str">
+      <c r="I41" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J41" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_LaborArea&gt;&lt;/PrisonLabor_LaborArea&gt;</v>
-      </c>
-      <c r="G41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_LaborArea</v>
+      </c>
+      <c r="K41" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L41" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>102</v>
       </c>
@@ -2274,18 +3087,29 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="19" t="str">
+      <c r="I42" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J42" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_LaborAreaDesc&gt;&lt;/PrisonLabor_LaborAreaDesc&gt;</v>
-      </c>
-      <c r="G42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_LaborAreaDesc</v>
+      </c>
+      <c r="K42" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L42" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>102</v>
       </c>
@@ -2294,18 +3118,29 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="17"/>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="19" t="str">
+      <c r="I43" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J43" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_ClearLaborArea&gt;&lt;/PrisonLabor_ClearLaborArea&gt;</v>
-      </c>
-      <c r="G43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_ClearLaborArea</v>
+      </c>
+      <c r="K43" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L43" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>102</v>
       </c>
@@ -2314,18 +3149,29 @@
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F44" s="19" t="str">
+      <c r="I44" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J44" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_ExpandLaborArea&gt;&lt;/PrisonLabor_ExpandLaborArea&gt;</v>
-      </c>
-      <c r="G44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_ExpandLaborArea</v>
+      </c>
+      <c r="K44" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L44" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>103</v>
       </c>
@@ -2334,18 +3180,29 @@
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F45" s="19" t="str">
+      <c r="I45" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J45" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_ColonistsOnly&gt;&lt;/PrisonLabor_ColonistsOnly&gt;</v>
-      </c>
-      <c r="G45" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>PrisonLabor_ColonistsOnly</v>
+      </c>
+      <c r="K45" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L45" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>103</v>
       </c>
@@ -2354,18 +3211,29 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="19" t="str">
+      <c r="I46" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J46" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_PrisonersOnly&gt;&lt;/PrisonLabor_PrisonersOnly&gt;</v>
-      </c>
-      <c r="G46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>PrisonLabor_PrisonersOnly</v>
+      </c>
+      <c r="K46" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L46" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>103</v>
       </c>
@@ -2374,438 +3242,721 @@
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="17"/>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="19" t="str">
+      <c r="I47" s="52" t="str">
+        <f>H$2</f>
+        <v>Keyed\Keys.xml</v>
+      </c>
+      <c r="J47" s="52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;PrisonLabor_ColonyOnly&gt;&lt;/PrisonLabor_ColonyOnly&gt;</v>
-      </c>
-      <c r="G47" t="s">
+        <v>PrisonLabor_ColonyOnly</v>
+      </c>
+      <c r="K47" s="52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L47" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I48" s="47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="27"/>
-      <c r="G48" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J48" s="51"/>
+      <c r="K48" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L48" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="F49" s="19" t="str">
-        <f>"&lt;"&amp;E49&amp;"&gt;"&amp;C49&amp;"&lt;/"&amp;E49&amp;"&gt;"</f>
-        <v>&lt;PrisonLabor_Indroduction.label&gt;&lt;/PrisonLabor_Indroduction.label&gt;</v>
-      </c>
-      <c r="G49" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="I49" s="43" t="str">
+        <f>H$48</f>
+        <v>DefInjected\ConceptDef\ConceptDef.xml</v>
+      </c>
+      <c r="J49" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Indroduction.label</v>
+      </c>
+      <c r="K49" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L49" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F50" s="19" t="str">
-        <f t="shared" ref="F50:F64" si="1">"&lt;"&amp;E50&amp;"&gt;"&amp;C50&amp;"&lt;/"&amp;E50&amp;"&gt;"</f>
-        <v>&lt;PrisonLabor_Indroduction.helpText&gt;&lt;/PrisonLabor_Indroduction.helpText&gt;</v>
-      </c>
-      <c r="G50" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I50" s="43" t="str">
+        <f>H$48</f>
+        <v>DefInjected\ConceptDef\ConceptDef.xml</v>
+      </c>
+      <c r="J50" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Indroduction.helpText</v>
+      </c>
+      <c r="K50" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L50" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F51" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_Motivation.label&gt;&lt;/PrisonLabor_Motivation.label&gt;</v>
-      </c>
-      <c r="G51" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="I51" s="43" t="str">
+        <f>H$48</f>
+        <v>DefInjected\ConceptDef\ConceptDef.xml</v>
+      </c>
+      <c r="J51" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Motivation.label</v>
+      </c>
+      <c r="K51" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L51" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F52" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_Motivation.helpText&gt;&lt;/PrisonLabor_Motivation.helpText&gt;</v>
-      </c>
-      <c r="G52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I52" s="43" t="str">
+        <f>H$48</f>
+        <v>DefInjected\ConceptDef\ConceptDef.xml</v>
+      </c>
+      <c r="J52" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Motivation.helpText</v>
+      </c>
+      <c r="K52" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L52" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="F53" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_Growing.label&gt;&lt;/PrisonLabor_Growing.label&gt;</v>
-      </c>
-      <c r="G53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="I53" s="43" t="str">
+        <f>H$48</f>
+        <v>DefInjected\ConceptDef\ConceptDef.xml</v>
+      </c>
+      <c r="J53" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Growing.label</v>
+      </c>
+      <c r="K53" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L53" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F54" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_Growing.helpText&gt;&lt;/PrisonLabor_Growing.helpText&gt;</v>
-      </c>
-      <c r="G54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I54" s="43" t="str">
+        <f>H$48</f>
+        <v>DefInjected\ConceptDef\ConceptDef.xml</v>
+      </c>
+      <c r="J54" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Growing.helpText</v>
+      </c>
+      <c r="K54" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L54" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="18" t="s">
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_Management.label&gt;&lt;/PrisonLabor_Management.label&gt;</v>
-      </c>
-      <c r="G55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="I55" s="43" t="str">
+        <f>H$48</f>
+        <v>DefInjected\ConceptDef\ConceptDef.xml</v>
+      </c>
+      <c r="J55" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Management.label</v>
+      </c>
+      <c r="K55" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L55" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="F56" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_Management.helpText&gt;&lt;/PrisonLabor_Management.helpText&gt;</v>
-      </c>
-      <c r="G56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I56" s="43" t="str">
+        <f>H$48</f>
+        <v>DefInjected\ConceptDef\ConceptDef.xml</v>
+      </c>
+      <c r="J56" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Management.helpText</v>
+      </c>
+      <c r="K56" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L56" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="F57" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_Timetable.label&gt;&lt;/PrisonLabor_Timetable.label&gt;</v>
-      </c>
-      <c r="G57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I57" s="43" t="str">
+        <f>H$48</f>
+        <v>DefInjected\ConceptDef\ConceptDef.xml</v>
+      </c>
+      <c r="J57" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Timetable.label</v>
+      </c>
+      <c r="K57" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L57" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15"/>
       <c r="B58" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F58" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_Timetable.helpText&gt;&lt;/PrisonLabor_Timetable.helpText&gt;</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="I58" s="43" t="str">
+        <f>H$48</f>
+        <v>DefInjected\ConceptDef\ConceptDef.xml</v>
+      </c>
+      <c r="J58" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Timetable.helpText</v>
+      </c>
+      <c r="K58" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L58" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I59" s="47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="27"/>
-      <c r="G59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J59" s="47"/>
+      <c r="K59" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L59" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="18" t="s">
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="F60" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_Motivation.label&gt;&lt;/PrisonLabor_Motivation.label&gt;</v>
-      </c>
-      <c r="G60" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I60" s="43" t="str">
+        <f>H$59</f>
+        <v>DefInjected\NeedDef\Needs.xml</v>
+      </c>
+      <c r="J60" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Motivation.label</v>
+      </c>
+      <c r="K60" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L60" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15"/>
       <c r="B61" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="17"/>
-      <c r="E61" s="18" t="s">
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="F61" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_Motivation.description&gt;&lt;/PrisonLabor_Motivation.description&gt;</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="I61" s="43" t="str">
+        <f>H$59</f>
+        <v>DefInjected\NeedDef\Needs.xml</v>
+      </c>
+      <c r="J61" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_Motivation.description</v>
+      </c>
+      <c r="K61" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L61" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="I62" s="47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="F62" s="27"/>
-      <c r="G62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J62" s="47"/>
+      <c r="K62" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L62" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="17"/>
-      <c r="E63" s="18" t="s">
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F63" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_PrisonerChains.stages.0.label&gt;&lt;/PrisonLabor_PrisonerChains.stages.0.label&gt;</v>
-      </c>
-      <c r="G63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I63" s="43" t="str">
+        <f>H$62</f>
+        <v>DefInjected\HediffDef\Hediffs.xml</v>
+      </c>
+      <c r="J63" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_PrisonerChains.stages.0.label</v>
+      </c>
+      <c r="K63" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L63" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="17"/>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F64" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;PrisonLabor_PrisonerChains.stages.1.label&gt;&lt;/PrisonLabor_PrisonerChains.stages.1.label&gt;</v>
-      </c>
-      <c r="G64" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I64" s="43" t="str">
+        <f>H$62</f>
+        <v>DefInjected\HediffDef\Hediffs.xml</v>
+      </c>
+      <c r="J64" s="43" t="str">
+        <f t="shared" si="0"/>
+        <v>PrisonLabor_PrisonerChains.stages.1.label</v>
+      </c>
+      <c r="K64" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L64" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="17"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
-      <c r="G65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L65" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15"/>
       <c r="B66" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="17"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="19"/>
-      <c r="G66" t="s">
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K66" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L66" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="I67" s="47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="F67" s="27"/>
-      <c r="G67" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J67" s="47"/>
+      <c r="K67" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="L67" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="F68" s="19" t="str">
-        <f t="shared" ref="F68:F69" si="2">"&lt;"&amp;E68&amp;"&gt;"&amp;C68&amp;"&lt;/"&amp;E68&amp;"&gt;"</f>
-        <v>&lt;PrisonLabor_Revolt.label&gt;&lt;/PrisonLabor_Revolt.label&gt;</v>
-      </c>
-      <c r="G68" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I68" s="43" t="str">
+        <f>H$67</f>
+        <v>DefInjected\IncidentDef\Incidents.xml</v>
+      </c>
+      <c r="J68" s="43" t="str">
+        <f t="shared" ref="J68:J101" si="2">H68</f>
+        <v>PrisonLabor_Revolt.label</v>
+      </c>
+      <c r="K68" s="44" t="str">
+        <f t="shared" ref="K68:K107" si="3">C68&amp;""</f>
+        <v/>
+      </c>
+      <c r="L68" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="17"/>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F69" s="19" t="str">
+      <c r="I69" s="43" t="str">
+        <f>H$67</f>
+        <v>DefInjected\IncidentDef\Incidents.xml</v>
+      </c>
+      <c r="J69" s="43" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;PrisonLabor_Revolt.letterLabel&gt;&lt;/PrisonLabor_Revolt.letterLabel&gt;</v>
-      </c>
-      <c r="G69" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>PrisonLabor_Revolt.letterLabel</v>
+      </c>
+      <c r="K69" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L69" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15"/>
       <c r="B70" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="19"/>
-      <c r="G70" t="s">
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="43" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="24" t="s">
+      <c r="J70" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
       <c r="D71" s="17"/>
-      <c r="E71" s="26" t="s">
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="F71" s="27"/>
-      <c r="G71" t="s">
+      <c r="I71" s="47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J71" s="47"/>
+      <c r="K71" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="F72" s="19" t="str">
-        <f t="shared" ref="F72:F76" si="3">"&lt;"&amp;E72&amp;"&gt;"&amp;C72&amp;"&lt;/"&amp;E72&amp;"&gt;"</f>
-        <v>&lt;PrisonLabor_PrisonerSupervise.reportString&gt;&lt;/PrisonLabor_PrisonerSupervise.reportString&gt;</v>
-      </c>
-      <c r="G72" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I72" s="43" t="str">
+        <f>H$71</f>
+        <v>DefInjected\JobDef\JobDef.xml</v>
+      </c>
+      <c r="J72" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_PrisonerSupervise.reportString</v>
+      </c>
+      <c r="K72" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L72" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>105</v>
       </c>
@@ -2814,18 +3965,29 @@
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="17"/>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="19" t="str">
+      <c r="I73" s="43" t="str">
+        <f>H$71</f>
+        <v>DefInjected\JobDef\JobDef.xml</v>
+      </c>
+      <c r="J73" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_DeliverFood_Tweak.reportString</v>
+      </c>
+      <c r="K73" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;PrisonLabor_DeliverFood_Tweak.reportString&gt;&lt;/PrisonLabor_DeliverFood_Tweak.reportString&gt;</v>
-      </c>
-      <c r="G73" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L73" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>105</v>
       </c>
@@ -2834,18 +3996,29 @@
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="17"/>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F74" s="19" t="str">
+      <c r="I74" s="43" t="str">
+        <f>H$71</f>
+        <v>DefInjected\JobDef\JobDef.xml</v>
+      </c>
+      <c r="J74" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_Mine_Tweak.reportString</v>
+      </c>
+      <c r="K74" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;PrisonLabor_Mine_Tweak.reportString&gt;&lt;/PrisonLabor_Mine_Tweak.reportString&gt;</v>
-      </c>
-      <c r="G74" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="L74" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>105</v>
       </c>
@@ -2854,18 +4027,29 @@
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="17"/>
-      <c r="E75" s="18" t="s">
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="F75" s="19" t="str">
+      <c r="I75" s="43" t="str">
+        <f>H$71</f>
+        <v>DefInjected\JobDef\JobDef.xml</v>
+      </c>
+      <c r="J75" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_Harvest_Tweak.reportString</v>
+      </c>
+      <c r="K75" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;PrisonLabor_Harvest_Tweak.reportString&gt;&lt;/PrisonLabor_Harvest_Tweak.reportString&gt;</v>
-      </c>
-      <c r="G75" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v/>
+      </c>
+      <c r="L75" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>105</v>
       </c>
@@ -2874,87 +4058,141 @@
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="18" t="s">
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="F76" s="19" t="str">
+      <c r="I76" s="43" t="str">
+        <f>H$71</f>
+        <v>DefInjected\JobDef\JobDef.xml</v>
+      </c>
+      <c r="J76" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_CutPlant_Tweak.reportString</v>
+      </c>
+      <c r="K76" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;PrisonLabor_CutPlant_Tweak.reportString&gt;&lt;/PrisonLabor_CutPlant_Tweak.reportString&gt;</v>
-      </c>
-      <c r="G76" t="s">
+        <v/>
+      </c>
+      <c r="L76" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="I77" s="47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="F77" s="29"/>
-      <c r="G77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J77" s="47"/>
+      <c r="K77" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L77" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="17"/>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="19" t="str">
-        <f t="shared" ref="F78:F101" si="4">"&lt;"&amp;E78&amp;"&gt;"&amp;C78&amp;"&lt;/"&amp;E78&amp;"&gt;"</f>
-        <v>&lt;PrisonLabor_SupervisePrisonLabor.label&gt;&lt;/PrisonLabor_SupervisePrisonLabor.label&gt;</v>
-      </c>
-      <c r="G78" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I78" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J78" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_SupervisePrisonLabor.label</v>
+      </c>
+      <c r="K78" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L78" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="17"/>
-      <c r="E79" s="18" t="s">
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="F79" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_SupervisePrisonLabor.verb&gt;&lt;/PrisonLabor_SupervisePrisonLabor.verb&gt;</v>
-      </c>
-      <c r="G79" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J79" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_SupervisePrisonLabor.verb</v>
+      </c>
+      <c r="K79" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L79" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="17"/>
-      <c r="E80" s="18" t="s">
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F80" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_SupervisePrisonLabor.gerund&gt;&lt;/PrisonLabor_SupervisePrisonLabor.gerund&gt;</v>
-      </c>
-      <c r="G80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I80" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J80" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_SupervisePrisonLabor.gerund</v>
+      </c>
+      <c r="K80" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L80" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>105</v>
       </c>
@@ -2963,18 +4201,29 @@
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="17"/>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="F81" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.label&gt;&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.label&gt;</v>
-      </c>
-      <c r="G81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I81" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J81" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_DeliverFoodToPrisoner_Tweak.label</v>
+      </c>
+      <c r="K81" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L81" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>105</v>
       </c>
@@ -2983,18 +4232,29 @@
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="17"/>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="F82" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.verb&gt;&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.verb&gt;</v>
-      </c>
-      <c r="G82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I82" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J82" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_DeliverFoodToPrisoner_Tweak.verb</v>
+      </c>
+      <c r="K82" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L82" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>105</v>
       </c>
@@ -3003,18 +4263,29 @@
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="17"/>
-      <c r="E83" s="18" t="s">
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="F83" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_DeliverFoodToPrisoner_Tweak.gerund&gt;&lt;/PrisonLabor_DeliverFoodToPrisoner_Tweak.gerund&gt;</v>
-      </c>
-      <c r="G83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I83" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J83" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_DeliverFoodToPrisoner_Tweak.gerund</v>
+      </c>
+      <c r="K83" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L83" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>105</v>
       </c>
@@ -3023,18 +4294,29 @@
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="17"/>
-      <c r="E84" s="18" t="s">
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="F84" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_Mine_Tweak.label&gt;&lt;/PrisonLabor_Mine_Tweak.label&gt;</v>
-      </c>
-      <c r="G84" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I84" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J84" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_Mine_Tweak.label</v>
+      </c>
+      <c r="K84" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L84" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>105</v>
       </c>
@@ -3043,18 +4325,29 @@
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="17"/>
-      <c r="E85" s="18" t="s">
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="F85" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_Mine_Tweak.verb&gt;&lt;/PrisonLabor_Mine_Tweak.verb&gt;</v>
-      </c>
-      <c r="G85" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I85" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J85" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_Mine_Tweak.verb</v>
+      </c>
+      <c r="K85" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L85" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>105</v>
       </c>
@@ -3063,18 +4356,29 @@
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="17"/>
-      <c r="E86" s="18" t="s">
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="F86" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_Mine_Tweak.gerund&gt;&lt;/PrisonLabor_Mine_Tweak.gerund&gt;</v>
-      </c>
-      <c r="G86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I86" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J86" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_Mine_Tweak.gerund</v>
+      </c>
+      <c r="K86" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L86" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>105</v>
       </c>
@@ -3083,18 +4387,29 @@
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="17"/>
-      <c r="E87" s="18" t="s">
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="F87" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_PlantsCut_Tweak.label&gt;&lt;/PrisonLabor_PlantsCut_Tweak.label&gt;</v>
-      </c>
-      <c r="G87" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I87" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J87" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_PlantsCut_Tweak.label</v>
+      </c>
+      <c r="K87" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L87" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>105</v>
       </c>
@@ -3103,18 +4418,29 @@
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="17"/>
-      <c r="E88" s="18" t="s">
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F88" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_PlantsCut_Tweak.verb&gt;&lt;/PrisonLabor_PlantsCut_Tweak.verb&gt;</v>
-      </c>
-      <c r="G88" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I88" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J88" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_PlantsCut_Tweak.verb</v>
+      </c>
+      <c r="K88" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L88" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>105</v>
       </c>
@@ -3123,18 +4449,29 @@
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="17"/>
-      <c r="E89" s="18" t="s">
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="F89" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_PlantsCut_Tweak.gerund&gt;&lt;/PrisonLabor_PlantsCut_Tweak.gerund&gt;</v>
-      </c>
-      <c r="G89" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I89" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J89" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_PlantsCut_Tweak.gerund</v>
+      </c>
+      <c r="K89" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L89" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>105</v>
       </c>
@@ -3143,18 +4480,29 @@
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="17"/>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="F90" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_GrowerHarvest_Tweak.label&gt;&lt;/PrisonLabor_GrowerHarvest_Tweak.label&gt;</v>
-      </c>
-      <c r="G90" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I90" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J90" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_GrowerHarvest_Tweak.label</v>
+      </c>
+      <c r="K90" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L90" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>105</v>
       </c>
@@ -3163,18 +4511,29 @@
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="17"/>
-      <c r="E91" s="18" t="s">
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="F91" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_GrowerHarvest_Tweak.verb&gt;&lt;/PrisonLabor_GrowerHarvest_Tweak.verb&gt;</v>
-      </c>
-      <c r="G91" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I91" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J91" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_GrowerHarvest_Tweak.verb</v>
+      </c>
+      <c r="K91" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L91" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>105</v>
       </c>
@@ -3183,18 +4542,29 @@
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="17"/>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="F92" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_GrowerHarvest_Tweak.gerund&gt;&lt;/PrisonLabor_GrowerHarvest_Tweak.gerund&gt;</v>
-      </c>
-      <c r="G92" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I92" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J92" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_GrowerHarvest_Tweak.gerund</v>
+      </c>
+      <c r="K92" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L92" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>105</v>
       </c>
@@ -3203,18 +4573,29 @@
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="17"/>
-      <c r="E93" s="18" t="s">
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="F93" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_GrowerSow_Tweak.label&gt;&lt;/PrisonLabor_GrowerSow_Tweak.label&gt;</v>
-      </c>
-      <c r="G93" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I93" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J93" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_GrowerSow_Tweak.label</v>
+      </c>
+      <c r="K93" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L93" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>105</v>
       </c>
@@ -3223,18 +4604,29 @@
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="17"/>
-      <c r="E94" s="18" t="s">
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="F94" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_GrowerSow_Tweak.verb&gt;&lt;/PrisonLabor_GrowerSow_Tweak.verb&gt;</v>
-      </c>
-      <c r="G94" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I94" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J94" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_GrowerSow_Tweak.verb</v>
+      </c>
+      <c r="K94" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L94" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>105</v>
       </c>
@@ -3243,18 +4635,29 @@
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="17"/>
-      <c r="E95" s="18" t="s">
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="F95" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_GrowerSow_Tweak.gerund&gt;&lt;/PrisonLabor_GrowerSow_Tweak.gerund&gt;</v>
-      </c>
-      <c r="G95" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I95" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J95" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_GrowerSow_Tweak.gerund</v>
+      </c>
+      <c r="K95" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L95" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>105</v>
       </c>
@@ -3263,18 +4666,29 @@
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="17"/>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="F96" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_CleanFilth_Tweak.label&gt;&lt;/PrisonLabor_CleanFilth_Tweak.label&gt;</v>
-      </c>
-      <c r="G96" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I96" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J96" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_CleanFilth_Tweak.label</v>
+      </c>
+      <c r="K96" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L96" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>105</v>
       </c>
@@ -3283,18 +4697,29 @@
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="17"/>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="F97" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_CleanFilth_Tweak.verb&gt;&lt;/PrisonLabor_CleanFilth_Tweak.verb&gt;</v>
-      </c>
-      <c r="G97" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I97" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J97" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_CleanFilth_Tweak.verb</v>
+      </c>
+      <c r="K97" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L97" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>105</v>
       </c>
@@ -3303,31 +4728,54 @@
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="17"/>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="F98" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_CleanFilth_Tweak.gerund&gt;&lt;/PrisonLabor_CleanFilth_Tweak.gerund&gt;</v>
-      </c>
-      <c r="G98" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I98" s="43" t="str">
+        <f>H$77</f>
+        <v>DefInjected\WorkGiverDef\WorkGiverDef.xml</v>
+      </c>
+      <c r="J98" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_CleanFilth_Tweak.gerund</v>
+      </c>
+      <c r="K98" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L98" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="38" t="s">
         <v>208</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="40"/>
       <c r="D99" s="17"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="31"/>
-      <c r="G99" t="s">
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="I99" s="47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J99" s="47"/>
+      <c r="K99" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L99" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="8" t="s">
         <v>4</v>
@@ -3337,52 +4785,84 @@
         <v/>
       </c>
       <c r="D100" s="17"/>
-      <c r="E100" s="36" t="s">
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="F100" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_workOption.label&gt;&lt;/PrisonLabor_workOption.label&gt;</v>
-      </c>
-      <c r="G100" t="s">
+      <c r="I100" s="43" t="str">
+        <f>H$99</f>
+        <v>DefInjected\InteractionDefs\PrisonerInteractionModeDef.xml</v>
+      </c>
+      <c r="J100" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_workOption.label</v>
+      </c>
+      <c r="K100" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L100" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="24"/>
+      <c r="B101" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="22" t="str">
+        <f>C4&amp;""</f>
+        <v/>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I101" s="43" t="str">
+        <f>H$100</f>
+        <v>PrisonLabor_workOption.label</v>
+      </c>
+      <c r="J101" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>PrisonLabor_workAndRecruitOption.label</v>
+      </c>
+      <c r="K101" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L101" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="37"/>
-      <c r="B101" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="35" t="str">
-        <f>C4&amp;""</f>
-        <v/>
-      </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F101" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>&lt;PrisonLabor_workAndRecruitOption.label&gt;&lt;/PrisonLabor_workAndRecruitOption.label&gt;</v>
-      </c>
-      <c r="G101" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="31"/>
-      <c r="G102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J102" s="47"/>
+      <c r="K102" s="48" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L102" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>96</v>
       </c>
@@ -3391,13 +4871,23 @@
       </c>
       <c r="C103" s="9"/>
       <c r="D103" s="17"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="19"/>
-      <c r="G103" t="s">
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="43" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+      <c r="J103" s="43"/>
+      <c r="K103" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L103" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="270" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>2</v>
       </c>
@@ -3406,13 +4896,23 @@
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="17"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="19"/>
-      <c r="G104" t="s">
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="43" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J104" s="43"/>
+      <c r="K104" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L104" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>106</v>
       </c>
@@ -3421,13 +4921,23 @@
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="17"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="19"/>
-      <c r="G105" t="s">
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="43" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="J105" s="43"/>
+      <c r="K105" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L105" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>107</v>
       </c>
@@ -3436,13 +4946,23 @@
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="17"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="19"/>
-      <c r="G106" t="s">
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="43" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="J106" s="43"/>
+      <c r="K106" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L106" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>108</v>
       </c>
@@ -3451,720 +4971,889 @@
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="17"/>
-      <c r="E107" s="20"/>
-      <c r="F107" s="21"/>
-      <c r="G107" t="s">
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="45" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J107" s="45"/>
+      <c r="K107" s="41" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L107" s="26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="16"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="16"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
-    </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+    </row>
+    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
-    </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+    </row>
+    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
-    </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+    </row>
+    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
-    </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+    </row>
+    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
-    </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+    </row>
+    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
-    </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+    </row>
+    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
-    </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+    </row>
+    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
-    </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+    </row>
+    <row r="120" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
-    </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+    </row>
+    <row r="121" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
-    </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+    </row>
+    <row r="122" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
-    </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+    </row>
+    <row r="123" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
-    </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+    </row>
+    <row r="124" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
-    </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+    </row>
+    <row r="125" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D125" s="16"/>
       <c r="E125" s="16"/>
-    </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+    </row>
+    <row r="126" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
-    </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+    </row>
+    <row r="127" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
-    </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+    </row>
+    <row r="128" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
-    </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+    </row>
+    <row r="129" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
-    </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+    </row>
+    <row r="130" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
-    </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+    </row>
+    <row r="131" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
-    </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+    </row>
+    <row r="132" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
-    </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+    </row>
+    <row r="133" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
-    </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+    </row>
+    <row r="134" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
-    </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+    </row>
+    <row r="135" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
-    </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+    </row>
+    <row r="136" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
-    </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+    </row>
+    <row r="137" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
-    </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+    </row>
+    <row r="138" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
-    </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+    </row>
+    <row r="139" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
-    </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+    </row>
+    <row r="140" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
-    </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+    </row>
+    <row r="141" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
-    </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+    </row>
+    <row r="142" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
-    </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+    </row>
+    <row r="143" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
-    </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+    </row>
+    <row r="144" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
-    </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+    </row>
+    <row r="145" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
-    </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+    </row>
+    <row r="146" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
-    </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+    </row>
+    <row r="147" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D147" s="16"/>
       <c r="E147" s="16"/>
-    </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+    </row>
+    <row r="148" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
-    </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+    </row>
+    <row r="149" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
-    </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+    </row>
+    <row r="150" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D150" s="16"/>
       <c r="E150" s="16"/>
-    </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+    </row>
+    <row r="151" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
-    </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+    </row>
+    <row r="152" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
-    </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+    </row>
+    <row r="153" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D153" s="16"/>
       <c r="E153" s="16"/>
-    </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+    </row>
+    <row r="154" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
-    </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+    </row>
+    <row r="155" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
-    </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+    </row>
+    <row r="156" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
-    </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+    </row>
+    <row r="157" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
-    </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+    </row>
+    <row r="158" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
-    </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+    </row>
+    <row r="159" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D159" s="16"/>
       <c r="E159" s="16"/>
-    </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+    </row>
+    <row r="160" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+    </row>
+    <row r="161" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E162" s="16"/>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E163" s="16"/>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E164" s="16"/>
-    </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="16"/>
-    </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E166" s="16"/>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E167" s="16"/>
-    </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E168" s="16"/>
-    </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E169" s="16"/>
-    </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E170" s="16"/>
-    </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E171" s="16"/>
-    </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E172" s="16"/>
-    </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E173" s="16"/>
-    </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E174" s="16"/>
-    </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E175" s="16"/>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E176" s="16"/>
-    </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177" s="16"/>
-    </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178" s="16"/>
-    </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179" s="16"/>
-    </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" s="16"/>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" s="16"/>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" s="16"/>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" s="16"/>
-    </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184" s="16"/>
-    </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185" s="16"/>
-    </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E186" s="16"/>
-    </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E187" s="16"/>
-    </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E188" s="16"/>
-    </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E189" s="16"/>
-    </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190" s="16"/>
-    </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191" s="16"/>
-    </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" s="16"/>
-    </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" s="16"/>
-    </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" s="16"/>
-    </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195" s="16"/>
-    </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196" s="16"/>
-    </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E197" s="16"/>
-    </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E198" s="16"/>
-    </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199" s="16"/>
-    </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200" s="16"/>
-    </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E201" s="16"/>
-    </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E202" s="16"/>
-    </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E203" s="16"/>
-    </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E204" s="16"/>
-    </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E205" s="16"/>
-    </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E206" s="16"/>
-    </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E207" s="16"/>
-    </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E208" s="16"/>
-    </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209" s="16"/>
-    </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E210" s="16"/>
-    </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E211" s="16"/>
-    </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E212" s="16"/>
-    </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E213" s="16"/>
-    </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E214" s="16"/>
-    </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E215" s="16"/>
-    </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E216" s="16"/>
-    </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E217" s="16"/>
-    </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E218" s="16"/>
-    </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E219" s="16"/>
-    </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E220" s="16"/>
-    </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E221" s="16"/>
-    </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E222" s="16"/>
-    </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E223" s="16"/>
-    </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E224" s="16"/>
-    </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E225" s="16"/>
-    </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E226" s="16"/>
-    </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E227" s="16"/>
-    </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E228" s="16"/>
-    </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E229" s="16"/>
-    </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E230" s="16"/>
-    </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E231" s="16"/>
-    </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E232" s="16"/>
-    </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E233" s="16"/>
-    </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E234" s="16"/>
-    </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E235" s="16"/>
-    </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E236" s="16"/>
-    </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E237" s="16"/>
-    </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E238" s="16"/>
-    </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E239" s="16"/>
-    </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E240" s="16"/>
-    </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E241" s="16"/>
-    </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E242" s="16"/>
-    </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E243" s="16"/>
-    </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E244" s="16"/>
-    </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E245" s="16"/>
-    </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E246" s="16"/>
-    </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E247" s="16"/>
-    </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E248" s="16"/>
-    </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E249" s="16"/>
-    </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E250" s="16"/>
-    </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E251" s="16"/>
-    </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E252" s="16"/>
-    </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E253" s="16"/>
-    </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E254" s="16"/>
-    </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E255" s="16"/>
-    </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E256" s="16"/>
-    </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E257" s="16"/>
-    </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E258" s="16"/>
-    </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E259" s="16"/>
-    </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E260" s="16"/>
-    </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E261" s="16"/>
-    </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E262" s="16"/>
-    </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E263" s="16"/>
-    </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E264" s="16"/>
-    </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E265" s="16"/>
-    </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E266" s="16"/>
-    </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E267" s="16"/>
-    </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E268" s="16"/>
-    </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E269" s="16"/>
-    </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E270" s="16"/>
-    </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E271" s="16"/>
-    </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E272" s="16"/>
-    </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E273" s="16"/>
-    </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E274" s="16"/>
-    </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E275" s="16"/>
-    </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E276" s="16"/>
-    </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E277" s="16"/>
-    </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E278" s="16"/>
-    </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E279" s="16"/>
-    </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E280" s="16"/>
-    </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E281" s="16"/>
-    </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E282" s="16"/>
-    </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E283" s="16"/>
-    </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E284" s="16"/>
-    </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E285" s="16"/>
-    </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E286" s="16"/>
-    </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E287" s="16"/>
-    </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E288" s="16"/>
-    </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E289" s="16"/>
-    </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E290" s="16"/>
-    </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E291" s="16"/>
-    </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E292" s="16"/>
-    </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E293" s="16"/>
-    </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E294" s="16"/>
-    </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E295" s="16"/>
-    </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E296" s="16"/>
-    </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E297" s="16"/>
-    </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E298" s="16"/>
-    </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E299" s="16"/>
-    </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E300" s="16"/>
-    </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E301" s="16"/>
-    </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E302" s="16"/>
-    </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E303" s="16"/>
-    </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E304" s="16"/>
-    </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E305" s="16"/>
-    </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E306" s="16"/>
-    </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E307" s="16"/>
-    </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E308" s="16"/>
-    </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E309" s="16"/>
-    </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E310" s="16"/>
-    </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E311" s="16"/>
-    </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E312" s="16"/>
-    </row>
-    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E313" s="16"/>
-    </row>
-    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E314" s="16"/>
-    </row>
-    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E315" s="16"/>
-    </row>
-    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E316" s="16"/>
-    </row>
-    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E317" s="16"/>
-    </row>
-    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E318" s="16"/>
-    </row>
-    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E319" s="16"/>
-    </row>
-    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E320" s="16"/>
-    </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E321" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+    </row>
+    <row r="162" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H162" s="16"/>
+    </row>
+    <row r="163" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H163" s="16"/>
+    </row>
+    <row r="164" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H164" s="16"/>
+    </row>
+    <row r="165" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H165" s="16"/>
+    </row>
+    <row r="166" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H166" s="16"/>
+    </row>
+    <row r="167" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H167" s="16"/>
+    </row>
+    <row r="168" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H168" s="16"/>
+    </row>
+    <row r="169" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H169" s="16"/>
+    </row>
+    <row r="170" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H170" s="16"/>
+    </row>
+    <row r="171" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="16"/>
+    </row>
+    <row r="172" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H172" s="16"/>
+    </row>
+    <row r="173" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H173" s="16"/>
+    </row>
+    <row r="174" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H174" s="16"/>
+    </row>
+    <row r="175" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H175" s="16"/>
+    </row>
+    <row r="176" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="H176" s="16"/>
+    </row>
+    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H177" s="16"/>
+    </row>
+    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H178" s="16"/>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H179" s="16"/>
+    </row>
+    <row r="180" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H180" s="16"/>
+    </row>
+    <row r="181" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H181" s="16"/>
+    </row>
+    <row r="182" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H182" s="16"/>
+    </row>
+    <row r="183" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H183" s="16"/>
+    </row>
+    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H184" s="16"/>
+    </row>
+    <row r="185" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H185" s="16"/>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H186" s="16"/>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H187" s="16"/>
+    </row>
+    <row r="188" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H188" s="16"/>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H189" s="16"/>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H190" s="16"/>
+    </row>
+    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H191" s="16"/>
+    </row>
+    <row r="192" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H192" s="16"/>
+    </row>
+    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H193" s="16"/>
+    </row>
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H194" s="16"/>
+    </row>
+    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H195" s="16"/>
+    </row>
+    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H196" s="16"/>
+    </row>
+    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H197" s="16"/>
+    </row>
+    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H198" s="16"/>
+    </row>
+    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H199" s="16"/>
+    </row>
+    <row r="200" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H200" s="16"/>
+    </row>
+    <row r="201" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H201" s="16"/>
+    </row>
+    <row r="202" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H202" s="16"/>
+    </row>
+    <row r="203" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H203" s="16"/>
+    </row>
+    <row r="204" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H204" s="16"/>
+    </row>
+    <row r="205" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H205" s="16"/>
+    </row>
+    <row r="206" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H206" s="16"/>
+    </row>
+    <row r="207" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H207" s="16"/>
+    </row>
+    <row r="208" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H208" s="16"/>
+    </row>
+    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H209" s="16"/>
+    </row>
+    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H210" s="16"/>
+    </row>
+    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H211" s="16"/>
+    </row>
+    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H212" s="16"/>
+    </row>
+    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H213" s="16"/>
+    </row>
+    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H214" s="16"/>
+    </row>
+    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H215" s="16"/>
+    </row>
+    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H216" s="16"/>
+    </row>
+    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H217" s="16"/>
+    </row>
+    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H218" s="16"/>
+    </row>
+    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H219" s="16"/>
+    </row>
+    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H220" s="16"/>
+    </row>
+    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H221" s="16"/>
+    </row>
+    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H222" s="16"/>
+    </row>
+    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H223" s="16"/>
+    </row>
+    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H224" s="16"/>
+    </row>
+    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H225" s="16"/>
+    </row>
+    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H226" s="16"/>
+    </row>
+    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H227" s="16"/>
+    </row>
+    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H228" s="16"/>
+    </row>
+    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H229" s="16"/>
+    </row>
+    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H230" s="16"/>
+    </row>
+    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H231" s="16"/>
+    </row>
+    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H232" s="16"/>
+    </row>
+    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H233" s="16"/>
+    </row>
+    <row r="234" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H234" s="16"/>
+    </row>
+    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H235" s="16"/>
+    </row>
+    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H236" s="16"/>
+    </row>
+    <row r="237" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H237" s="16"/>
+    </row>
+    <row r="238" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H238" s="16"/>
+    </row>
+    <row r="239" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H239" s="16"/>
+    </row>
+    <row r="240" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H240" s="16"/>
+    </row>
+    <row r="241" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H241" s="16"/>
+    </row>
+    <row r="242" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H242" s="16"/>
+    </row>
+    <row r="243" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H243" s="16"/>
+    </row>
+    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H244" s="16"/>
+    </row>
+    <row r="245" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H245" s="16"/>
+    </row>
+    <row r="246" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H246" s="16"/>
+    </row>
+    <row r="247" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H247" s="16"/>
+    </row>
+    <row r="248" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H248" s="16"/>
+    </row>
+    <row r="249" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H249" s="16"/>
+    </row>
+    <row r="250" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H250" s="16"/>
+    </row>
+    <row r="251" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H251" s="16"/>
+    </row>
+    <row r="252" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H252" s="16"/>
+    </row>
+    <row r="253" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H253" s="16"/>
+    </row>
+    <row r="254" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H254" s="16"/>
+    </row>
+    <row r="255" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H255" s="16"/>
+    </row>
+    <row r="256" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H256" s="16"/>
+    </row>
+    <row r="257" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H257" s="16"/>
+    </row>
+    <row r="258" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H258" s="16"/>
+    </row>
+    <row r="259" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H259" s="16"/>
+    </row>
+    <row r="260" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H260" s="16"/>
+    </row>
+    <row r="261" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H261" s="16"/>
+    </row>
+    <row r="262" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H262" s="16"/>
+    </row>
+    <row r="263" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H263" s="16"/>
+    </row>
+    <row r="264" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H264" s="16"/>
+    </row>
+    <row r="265" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H265" s="16"/>
+    </row>
+    <row r="266" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H266" s="16"/>
+    </row>
+    <row r="267" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H267" s="16"/>
+    </row>
+    <row r="268" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H268" s="16"/>
+    </row>
+    <row r="269" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H269" s="16"/>
+    </row>
+    <row r="270" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H270" s="16"/>
+    </row>
+    <row r="271" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H271" s="16"/>
+    </row>
+    <row r="272" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H272" s="16"/>
+    </row>
+    <row r="273" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H273" s="16"/>
+    </row>
+    <row r="274" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H274" s="16"/>
+    </row>
+    <row r="275" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H275" s="16"/>
+    </row>
+    <row r="276" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H276" s="16"/>
+    </row>
+    <row r="277" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H277" s="16"/>
+    </row>
+    <row r="278" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H278" s="16"/>
+    </row>
+    <row r="279" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H279" s="16"/>
+    </row>
+    <row r="280" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H280" s="16"/>
+    </row>
+    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H281" s="16"/>
+    </row>
+    <row r="282" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H282" s="16"/>
+    </row>
+    <row r="283" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H283" s="16"/>
+    </row>
+    <row r="284" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H284" s="16"/>
+    </row>
+    <row r="285" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H285" s="16"/>
+    </row>
+    <row r="286" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H286" s="16"/>
+    </row>
+    <row r="287" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H287" s="16"/>
+    </row>
+    <row r="288" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H288" s="16"/>
+    </row>
+    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H289" s="16"/>
+    </row>
+    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H290" s="16"/>
+    </row>
+    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H291" s="16"/>
+    </row>
+    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H292" s="16"/>
+    </row>
+    <row r="293" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H293" s="16"/>
+    </row>
+    <row r="294" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H294" s="16"/>
+    </row>
+    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H295" s="16"/>
+    </row>
+    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H296" s="16"/>
+    </row>
+    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H297" s="16"/>
+    </row>
+    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H298" s="16"/>
+    </row>
+    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H299" s="16"/>
+    </row>
+    <row r="300" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H300" s="16"/>
+    </row>
+    <row r="301" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H301" s="16"/>
+    </row>
+    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H302" s="16"/>
+    </row>
+    <row r="303" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H303" s="16"/>
+    </row>
+    <row r="304" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H304" s="16"/>
+    </row>
+    <row r="305" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H305" s="16"/>
+    </row>
+    <row r="306" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H306" s="16"/>
+    </row>
+    <row r="307" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H307" s="16"/>
+    </row>
+    <row r="308" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H308" s="16"/>
+    </row>
+    <row r="309" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H309" s="16"/>
+    </row>
+    <row r="310" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H310" s="16"/>
+    </row>
+    <row r="311" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H311" s="16"/>
+    </row>
+    <row r="312" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H312" s="16"/>
+    </row>
+    <row r="313" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H313" s="16"/>
+    </row>
+    <row r="314" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H314" s="16"/>
+    </row>
+    <row r="315" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H315" s="16"/>
+    </row>
+    <row r="316" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H316" s="16"/>
+    </row>
+    <row r="317" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H317" s="16"/>
+    </row>
+    <row r="318" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H318" s="16"/>
+    </row>
+    <row r="319" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H319" s="16"/>
+    </row>
+    <row r="320" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H320" s="16"/>
+    </row>
+    <row r="321" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H321" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="E102:F102"/>
+  <mergeCells count="11">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E99:F99"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A102:C102"/>
     <mergeCell ref="A2:C2"/>
@@ -4174,8 +5863,12 @@
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A99:C99"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>